--- a/股票模拟建仓模板.xlsx
+++ b/股票模拟建仓模板.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/thomas/Desktop/股票模拟仓/模板/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/thomas/Code/github.com/liyi1472/stock-data-onekey/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A70BDBF2-557A-694A-AFF2-A9E014FFE7EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B83C2187-87E8-3B4D-8504-6CD4D7A25ACC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="840" yWindow="500" windowWidth="32760" windowHeight="20500" activeTab="1" xr2:uid="{D477A090-BE23-214A-A126-EE303093E54E}"/>
   </bookViews>
@@ -525,6 +525,15 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -542,18 +551,6 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -570,6 +567,9 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1002,27 +1002,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="19" customHeight="1">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="24" t="s">
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="E1" s="26" t="s">
+      <c r="E1" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="F1" s="27"/>
-      <c r="G1" s="26" t="s">
+      <c r="F1" s="23"/>
+      <c r="G1" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="H1" s="27"/>
-      <c r="I1" s="26" t="s">
+      <c r="H1" s="23"/>
+      <c r="I1" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="J1" s="28"/>
-      <c r="K1" s="27"/>
+      <c r="J1" s="22"/>
+      <c r="K1" s="23"/>
       <c r="L1" s="5" t="s">
         <v>20</v>
       </c>
@@ -1039,10 +1039,10 @@
       </c>
     </row>
     <row r="2" spans="1:15">
-      <c r="A2" s="21"/>
-      <c r="B2" s="21"/>
-      <c r="C2" s="21"/>
-      <c r="D2" s="25"/>
+      <c r="A2" s="24"/>
+      <c r="B2" s="24"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="28"/>
       <c r="E2" s="9" t="s">
         <v>13</v>
       </c>
@@ -1080,11 +1080,11 @@
       </c>
     </row>
     <row r="3" spans="1:15">
-      <c r="A3" s="22">
-        <v>0</v>
-      </c>
-      <c r="B3" s="23"/>
-      <c r="C3" s="23"/>
+      <c r="A3" s="25">
+        <v>0</v>
+      </c>
+      <c r="B3" s="26"/>
+      <c r="C3" s="26"/>
       <c r="D3" s="16" t="s">
         <v>30</v>
       </c>
@@ -1120,7 +1120,7 @@
         <v>21</v>
       </c>
       <c r="M3" s="11" t="str">
-        <f ca="1">IF($M$1&lt;&gt;"", $K$3/$A$3/(IF($D$3="平仓", MAX($I5:$I1000000), TODAY())-$M$1+1)*365, "")</f>
+        <f ca="1">IFERROR(IF($M$1&lt;&gt;"", $K$3/$A$3/(IF($D$3="平仓", MAX($I5:$I1000000), TODAY())-$M$1+1)*365, ""), 0)</f>
         <v/>
       </c>
       <c r="N3" s="5" t="s">
@@ -14137,186 +14137,186 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:25">
-      <c r="B2" s="31" t="s">
+      <c r="B2" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="31" t="s">
+      <c r="C2" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="33" t="s">
+      <c r="D2" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="33"/>
-      <c r="F2" s="33"/>
-      <c r="G2" s="33"/>
-      <c r="H2" s="33"/>
-      <c r="I2" s="33"/>
-      <c r="J2" s="33"/>
-      <c r="K2" s="33"/>
-      <c r="L2" s="33"/>
-      <c r="M2" s="33"/>
-      <c r="N2" s="33"/>
-      <c r="O2" s="33"/>
-      <c r="P2" s="33"/>
-      <c r="Q2" s="33"/>
-      <c r="R2" s="33"/>
-      <c r="S2" s="33"/>
-      <c r="T2" s="33"/>
-      <c r="U2" s="33"/>
-      <c r="V2" s="33"/>
-      <c r="W2" s="33"/>
-      <c r="X2" s="33"/>
-      <c r="Y2" s="33"/>
+      <c r="E2" s="32"/>
+      <c r="F2" s="32"/>
+      <c r="G2" s="32"/>
+      <c r="H2" s="32"/>
+      <c r="I2" s="32"/>
+      <c r="J2" s="32"/>
+      <c r="K2" s="32"/>
+      <c r="L2" s="32"/>
+      <c r="M2" s="32"/>
+      <c r="N2" s="32"/>
+      <c r="O2" s="32"/>
+      <c r="P2" s="32"/>
+      <c r="Q2" s="32"/>
+      <c r="R2" s="32"/>
+      <c r="S2" s="32"/>
+      <c r="T2" s="32"/>
+      <c r="U2" s="32"/>
+      <c r="V2" s="32"/>
+      <c r="W2" s="32"/>
+      <c r="X2" s="32"/>
+      <c r="Y2" s="32"/>
     </row>
     <row r="3" spans="2:25">
-      <c r="B3" s="31" t="s">
+      <c r="B3" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="31"/>
-      <c r="D3" s="34"/>
-      <c r="E3" s="34"/>
-      <c r="F3" s="34"/>
-      <c r="G3" s="34"/>
-      <c r="H3" s="34"/>
-      <c r="I3" s="34"/>
-      <c r="J3" s="34"/>
-      <c r="K3" s="34"/>
-      <c r="L3" s="34"/>
-      <c r="M3" s="34"/>
-      <c r="N3" s="34"/>
-      <c r="O3" s="34"/>
-      <c r="P3" s="34"/>
-      <c r="Q3" s="34"/>
-      <c r="R3" s="34"/>
-      <c r="S3" s="34"/>
-      <c r="T3" s="34"/>
-      <c r="U3" s="34"/>
-      <c r="V3" s="34"/>
-      <c r="W3" s="34"/>
-      <c r="X3" s="34"/>
-      <c r="Y3" s="34"/>
+      <c r="C3" s="30"/>
+      <c r="D3" s="33"/>
+      <c r="E3" s="33"/>
+      <c r="F3" s="33"/>
+      <c r="G3" s="33"/>
+      <c r="H3" s="33"/>
+      <c r="I3" s="33"/>
+      <c r="J3" s="33"/>
+      <c r="K3" s="33"/>
+      <c r="L3" s="33"/>
+      <c r="M3" s="33"/>
+      <c r="N3" s="33"/>
+      <c r="O3" s="33"/>
+      <c r="P3" s="33"/>
+      <c r="Q3" s="33"/>
+      <c r="R3" s="33"/>
+      <c r="S3" s="33"/>
+      <c r="T3" s="33"/>
+      <c r="U3" s="33"/>
+      <c r="V3" s="33"/>
+      <c r="W3" s="33"/>
+      <c r="X3" s="33"/>
+      <c r="Y3" s="33"/>
     </row>
     <row r="4" spans="2:25">
-      <c r="B4" s="31" t="s">
+      <c r="B4" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="31"/>
-      <c r="D4" s="29" t="s">
+      <c r="C4" s="30"/>
+      <c r="D4" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="E4" s="29"/>
-      <c r="F4" s="29"/>
-      <c r="G4" s="29"/>
-      <c r="H4" s="29"/>
-      <c r="I4" s="29"/>
-      <c r="J4" s="29"/>
-      <c r="K4" s="29"/>
-      <c r="L4" s="29"/>
-      <c r="M4" s="29"/>
-      <c r="N4" s="29"/>
-      <c r="O4" s="29"/>
-      <c r="P4" s="29"/>
-      <c r="Q4" s="29"/>
-      <c r="R4" s="29"/>
-      <c r="S4" s="29"/>
-      <c r="T4" s="29"/>
-      <c r="U4" s="29"/>
-      <c r="V4" s="29"/>
-      <c r="W4" s="29"/>
-      <c r="X4" s="29"/>
-      <c r="Y4" s="29"/>
+      <c r="E4" s="34"/>
+      <c r="F4" s="34"/>
+      <c r="G4" s="34"/>
+      <c r="H4" s="34"/>
+      <c r="I4" s="34"/>
+      <c r="J4" s="34"/>
+      <c r="K4" s="34"/>
+      <c r="L4" s="34"/>
+      <c r="M4" s="34"/>
+      <c r="N4" s="34"/>
+      <c r="O4" s="34"/>
+      <c r="P4" s="34"/>
+      <c r="Q4" s="34"/>
+      <c r="R4" s="34"/>
+      <c r="S4" s="34"/>
+      <c r="T4" s="34"/>
+      <c r="U4" s="34"/>
+      <c r="V4" s="34"/>
+      <c r="W4" s="34"/>
+      <c r="X4" s="34"/>
+      <c r="Y4" s="34"/>
     </row>
     <row r="5" spans="2:25">
-      <c r="B5" s="31" t="s">
+      <c r="B5" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="31"/>
-      <c r="D5" s="29" t="s">
+      <c r="C5" s="30"/>
+      <c r="D5" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="E5" s="29"/>
-      <c r="F5" s="29"/>
-      <c r="G5" s="29"/>
-      <c r="H5" s="29"/>
-      <c r="I5" s="29"/>
-      <c r="J5" s="29"/>
-      <c r="K5" s="29"/>
-      <c r="L5" s="29"/>
-      <c r="M5" s="29"/>
-      <c r="N5" s="29"/>
-      <c r="O5" s="29"/>
-      <c r="P5" s="29"/>
-      <c r="Q5" s="29"/>
-      <c r="R5" s="29"/>
-      <c r="S5" s="29"/>
-      <c r="T5" s="29"/>
-      <c r="U5" s="29"/>
-      <c r="V5" s="29"/>
-      <c r="W5" s="29"/>
-      <c r="X5" s="29"/>
-      <c r="Y5" s="29"/>
+      <c r="E5" s="34"/>
+      <c r="F5" s="34"/>
+      <c r="G5" s="34"/>
+      <c r="H5" s="34"/>
+      <c r="I5" s="34"/>
+      <c r="J5" s="34"/>
+      <c r="K5" s="34"/>
+      <c r="L5" s="34"/>
+      <c r="M5" s="34"/>
+      <c r="N5" s="34"/>
+      <c r="O5" s="34"/>
+      <c r="P5" s="34"/>
+      <c r="Q5" s="34"/>
+      <c r="R5" s="34"/>
+      <c r="S5" s="34"/>
+      <c r="T5" s="34"/>
+      <c r="U5" s="34"/>
+      <c r="V5" s="34"/>
+      <c r="W5" s="34"/>
+      <c r="X5" s="34"/>
+      <c r="Y5" s="34"/>
     </row>
     <row r="6" spans="2:25">
-      <c r="B6" s="31" t="s">
+      <c r="B6" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="31"/>
-      <c r="D6" s="29" t="s">
-        <v>0</v>
-      </c>
-      <c r="E6" s="29"/>
-      <c r="F6" s="29"/>
-      <c r="G6" s="29"/>
-      <c r="H6" s="29"/>
-      <c r="I6" s="29"/>
-      <c r="J6" s="29"/>
-      <c r="K6" s="29"/>
-      <c r="L6" s="29"/>
-      <c r="M6" s="29"/>
-      <c r="N6" s="29"/>
-      <c r="O6" s="29"/>
-      <c r="P6" s="29"/>
-      <c r="Q6" s="29"/>
-      <c r="R6" s="29"/>
-      <c r="S6" s="29"/>
-      <c r="T6" s="29"/>
-      <c r="U6" s="29"/>
-      <c r="V6" s="29"/>
-      <c r="W6" s="29"/>
-      <c r="X6" s="29"/>
-      <c r="Y6" s="29"/>
+      <c r="C6" s="30"/>
+      <c r="D6" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="E6" s="34"/>
+      <c r="F6" s="34"/>
+      <c r="G6" s="34"/>
+      <c r="H6" s="34"/>
+      <c r="I6" s="34"/>
+      <c r="J6" s="34"/>
+      <c r="K6" s="34"/>
+      <c r="L6" s="34"/>
+      <c r="M6" s="34"/>
+      <c r="N6" s="34"/>
+      <c r="O6" s="34"/>
+      <c r="P6" s="34"/>
+      <c r="Q6" s="34"/>
+      <c r="R6" s="34"/>
+      <c r="S6" s="34"/>
+      <c r="T6" s="34"/>
+      <c r="U6" s="34"/>
+      <c r="V6" s="34"/>
+      <c r="W6" s="34"/>
+      <c r="X6" s="34"/>
+      <c r="Y6" s="34"/>
     </row>
     <row r="7" spans="2:25">
-      <c r="B7" s="32" t="s">
+      <c r="B7" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="32" t="s">
+      <c r="C7" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="30" t="s">
+      <c r="D7" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="E7" s="30"/>
-      <c r="F7" s="30"/>
-      <c r="G7" s="30"/>
-      <c r="H7" s="30"/>
-      <c r="I7" s="30"/>
-      <c r="J7" s="30"/>
-      <c r="K7" s="30"/>
-      <c r="L7" s="30"/>
-      <c r="M7" s="30"/>
-      <c r="N7" s="30"/>
-      <c r="O7" s="30"/>
-      <c r="P7" s="30"/>
-      <c r="Q7" s="30"/>
-      <c r="R7" s="30"/>
-      <c r="S7" s="30"/>
-      <c r="T7" s="30"/>
-      <c r="U7" s="30"/>
-      <c r="V7" s="30"/>
-      <c r="W7" s="30"/>
-      <c r="X7" s="30"/>
-      <c r="Y7" s="30"/>
+      <c r="E7" s="29"/>
+      <c r="F7" s="29"/>
+      <c r="G7" s="29"/>
+      <c r="H7" s="29"/>
+      <c r="I7" s="29"/>
+      <c r="J7" s="29"/>
+      <c r="K7" s="29"/>
+      <c r="L7" s="29"/>
+      <c r="M7" s="29"/>
+      <c r="N7" s="29"/>
+      <c r="O7" s="29"/>
+      <c r="P7" s="29"/>
+      <c r="Q7" s="29"/>
+      <c r="R7" s="29"/>
+      <c r="S7" s="29"/>
+      <c r="T7" s="29"/>
+      <c r="U7" s="29"/>
+      <c r="V7" s="29"/>
+      <c r="W7" s="29"/>
+      <c r="X7" s="29"/>
+      <c r="Y7" s="29"/>
     </row>
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1"/>

--- a/股票模拟建仓模板.xlsx
+++ b/股票模拟建仓模板.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/thomas/Code/github.com/liyi1472/stock-data-onekey/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B83C2187-87E8-3B4D-8504-6CD4D7A25ACC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65AD2B48-1042-2642-A475-F29AA257A070}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="840" yWindow="500" windowWidth="32760" windowHeight="20500" activeTab="1" xr2:uid="{D477A090-BE23-214A-A126-EE303093E54E}"/>
+    <workbookView xWindow="840" yWindow="500" windowWidth="32760" windowHeight="20500" xr2:uid="{D477A090-BE23-214A-A126-EE303093E54E}"/>
   </bookViews>
   <sheets>
     <sheet name="仓位管理" sheetId="1" r:id="rId1"/>
@@ -188,15 +188,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve"> 买入价格</t>
+    <t xml:space="preserve">   买入价格</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve"> 持仓成本</t>
+    <t xml:space="preserve">   持仓成本</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve"> 持仓天数</t>
+    <t xml:space="preserve">  持仓天数</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -455,7 +455,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -524,6 +524,12 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
@@ -974,7 +980,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF28F8D6-90CD-5F4C-B88F-9813F153E0B3}">
   <dimension ref="A1:O500"/>
   <sheetViews>
-    <sheetView zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="180" workbookViewId="0">
+    <sheetView showRowColHeaders="0" tabSelected="1" zoomScale="154" zoomScaleNormal="154" zoomScaleSheetLayoutView="180" workbookViewId="0">
       <pane xSplit="15" ySplit="4" topLeftCell="P5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="P1" sqref="P1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
@@ -984,12 +990,12 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19"/>
   <cols>
     <col min="1" max="1" width="11.5" style="2" customWidth="1"/>
-    <col min="2" max="2" width="8.1640625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" style="3" customWidth="1"/>
     <col min="3" max="3" width="7.6640625" style="2" customWidth="1"/>
     <col min="4" max="4" width="9.6640625" style="12" customWidth="1"/>
-    <col min="5" max="5" width="11.83203125" style="17" customWidth="1"/>
-    <col min="6" max="6" width="11.33203125" style="17" customWidth="1"/>
-    <col min="7" max="7" width="11.6640625" style="4" customWidth="1"/>
+    <col min="5" max="5" width="13" style="17" customWidth="1"/>
+    <col min="6" max="6" width="11.5" style="17" customWidth="1"/>
+    <col min="7" max="7" width="13.33203125" style="4" customWidth="1"/>
     <col min="8" max="8" width="11.5" style="18" customWidth="1"/>
     <col min="9" max="9" width="15.33203125" style="19" customWidth="1"/>
     <col min="10" max="10" width="12" style="13" customWidth="1"/>
@@ -1002,27 +1008,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="19" customHeight="1">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="27" t="s">
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="29" t="s">
         <v>29</v>
       </c>
-      <c r="E1" s="21" t="s">
+      <c r="E1" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="F1" s="23"/>
-      <c r="G1" s="21" t="s">
+      <c r="F1" s="25"/>
+      <c r="G1" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="H1" s="23"/>
-      <c r="I1" s="21" t="s">
+      <c r="H1" s="25"/>
+      <c r="I1" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="J1" s="22"/>
-      <c r="K1" s="23"/>
+      <c r="J1" s="24"/>
+      <c r="K1" s="25"/>
       <c r="L1" s="5" t="s">
         <v>20</v>
       </c>
@@ -1039,10 +1045,10 @@
       </c>
     </row>
     <row r="2" spans="1:15">
-      <c r="A2" s="24"/>
-      <c r="B2" s="24"/>
-      <c r="C2" s="24"/>
-      <c r="D2" s="28"/>
+      <c r="A2" s="26"/>
+      <c r="B2" s="26"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="30"/>
       <c r="E2" s="9" t="s">
         <v>13</v>
       </c>
@@ -1080,11 +1086,11 @@
       </c>
     </row>
     <row r="3" spans="1:15">
-      <c r="A3" s="25">
-        <v>0</v>
-      </c>
-      <c r="B3" s="26"/>
-      <c r="C3" s="26"/>
+      <c r="A3" s="27">
+        <v>0</v>
+      </c>
+      <c r="B3" s="28"/>
+      <c r="C3" s="28"/>
       <c r="D3" s="16" t="s">
         <v>30</v>
       </c>
@@ -1132,31 +1138,31 @@
       </c>
     </row>
     <row r="4" spans="1:15">
-      <c r="A4" s="20" t="s">
+      <c r="A4" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="B4" s="20" t="s">
+      <c r="B4" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="C4" s="20" t="s">
+      <c r="C4" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="D4" s="20" t="s">
+      <c r="D4" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="E4" s="20" t="s">
+      <c r="E4" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="F4" s="20" t="s">
+      <c r="F4" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="G4" s="20" t="s">
+      <c r="G4" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="H4" s="20" t="s">
+      <c r="H4" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="I4" s="5" t="s">
+      <c r="I4" s="22" t="s">
         <v>24</v>
       </c>
       <c r="J4" s="20" t="s">
@@ -14127,7 +14133,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66869A95-26C1-1F48-854B-D41A12E8697C}">
   <dimension ref="B2:Y7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+    <sheetView showRowColHeaders="0" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <selection activeCell="D3" sqref="D3:Y3"/>
     </sheetView>
   </sheetViews>
@@ -14137,186 +14143,186 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:25">
-      <c r="B2" s="30" t="s">
+      <c r="B2" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="30" t="s">
+      <c r="C2" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="32" t="s">
+      <c r="D2" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="32"/>
-      <c r="F2" s="32"/>
-      <c r="G2" s="32"/>
-      <c r="H2" s="32"/>
-      <c r="I2" s="32"/>
-      <c r="J2" s="32"/>
-      <c r="K2" s="32"/>
-      <c r="L2" s="32"/>
-      <c r="M2" s="32"/>
-      <c r="N2" s="32"/>
-      <c r="O2" s="32"/>
-      <c r="P2" s="32"/>
-      <c r="Q2" s="32"/>
-      <c r="R2" s="32"/>
-      <c r="S2" s="32"/>
-      <c r="T2" s="32"/>
-      <c r="U2" s="32"/>
-      <c r="V2" s="32"/>
-      <c r="W2" s="32"/>
-      <c r="X2" s="32"/>
-      <c r="Y2" s="32"/>
+      <c r="E2" s="34"/>
+      <c r="F2" s="34"/>
+      <c r="G2" s="34"/>
+      <c r="H2" s="34"/>
+      <c r="I2" s="34"/>
+      <c r="J2" s="34"/>
+      <c r="K2" s="34"/>
+      <c r="L2" s="34"/>
+      <c r="M2" s="34"/>
+      <c r="N2" s="34"/>
+      <c r="O2" s="34"/>
+      <c r="P2" s="34"/>
+      <c r="Q2" s="34"/>
+      <c r="R2" s="34"/>
+      <c r="S2" s="34"/>
+      <c r="T2" s="34"/>
+      <c r="U2" s="34"/>
+      <c r="V2" s="34"/>
+      <c r="W2" s="34"/>
+      <c r="X2" s="34"/>
+      <c r="Y2" s="34"/>
     </row>
     <row r="3" spans="2:25">
-      <c r="B3" s="30" t="s">
+      <c r="B3" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="30"/>
-      <c r="D3" s="33"/>
-      <c r="E3" s="33"/>
-      <c r="F3" s="33"/>
-      <c r="G3" s="33"/>
-      <c r="H3" s="33"/>
-      <c r="I3" s="33"/>
-      <c r="J3" s="33"/>
-      <c r="K3" s="33"/>
-      <c r="L3" s="33"/>
-      <c r="M3" s="33"/>
-      <c r="N3" s="33"/>
-      <c r="O3" s="33"/>
-      <c r="P3" s="33"/>
-      <c r="Q3" s="33"/>
-      <c r="R3" s="33"/>
-      <c r="S3" s="33"/>
-      <c r="T3" s="33"/>
-      <c r="U3" s="33"/>
-      <c r="V3" s="33"/>
-      <c r="W3" s="33"/>
-      <c r="X3" s="33"/>
-      <c r="Y3" s="33"/>
+      <c r="C3" s="32"/>
+      <c r="D3" s="35"/>
+      <c r="E3" s="35"/>
+      <c r="F3" s="35"/>
+      <c r="G3" s="35"/>
+      <c r="H3" s="35"/>
+      <c r="I3" s="35"/>
+      <c r="J3" s="35"/>
+      <c r="K3" s="35"/>
+      <c r="L3" s="35"/>
+      <c r="M3" s="35"/>
+      <c r="N3" s="35"/>
+      <c r="O3" s="35"/>
+      <c r="P3" s="35"/>
+      <c r="Q3" s="35"/>
+      <c r="R3" s="35"/>
+      <c r="S3" s="35"/>
+      <c r="T3" s="35"/>
+      <c r="U3" s="35"/>
+      <c r="V3" s="35"/>
+      <c r="W3" s="35"/>
+      <c r="X3" s="35"/>
+      <c r="Y3" s="35"/>
     </row>
     <row r="4" spans="2:25">
-      <c r="B4" s="30" t="s">
+      <c r="B4" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="30"/>
-      <c r="D4" s="34" t="s">
+      <c r="C4" s="32"/>
+      <c r="D4" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="E4" s="34"/>
-      <c r="F4" s="34"/>
-      <c r="G4" s="34"/>
-      <c r="H4" s="34"/>
-      <c r="I4" s="34"/>
-      <c r="J4" s="34"/>
-      <c r="K4" s="34"/>
-      <c r="L4" s="34"/>
-      <c r="M4" s="34"/>
-      <c r="N4" s="34"/>
-      <c r="O4" s="34"/>
-      <c r="P4" s="34"/>
-      <c r="Q4" s="34"/>
-      <c r="R4" s="34"/>
-      <c r="S4" s="34"/>
-      <c r="T4" s="34"/>
-      <c r="U4" s="34"/>
-      <c r="V4" s="34"/>
-      <c r="W4" s="34"/>
-      <c r="X4" s="34"/>
-      <c r="Y4" s="34"/>
+      <c r="E4" s="36"/>
+      <c r="F4" s="36"/>
+      <c r="G4" s="36"/>
+      <c r="H4" s="36"/>
+      <c r="I4" s="36"/>
+      <c r="J4" s="36"/>
+      <c r="K4" s="36"/>
+      <c r="L4" s="36"/>
+      <c r="M4" s="36"/>
+      <c r="N4" s="36"/>
+      <c r="O4" s="36"/>
+      <c r="P4" s="36"/>
+      <c r="Q4" s="36"/>
+      <c r="R4" s="36"/>
+      <c r="S4" s="36"/>
+      <c r="T4" s="36"/>
+      <c r="U4" s="36"/>
+      <c r="V4" s="36"/>
+      <c r="W4" s="36"/>
+      <c r="X4" s="36"/>
+      <c r="Y4" s="36"/>
     </row>
     <row r="5" spans="2:25">
-      <c r="B5" s="30" t="s">
+      <c r="B5" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="30"/>
-      <c r="D5" s="34" t="s">
+      <c r="C5" s="32"/>
+      <c r="D5" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="E5" s="34"/>
-      <c r="F5" s="34"/>
-      <c r="G5" s="34"/>
-      <c r="H5" s="34"/>
-      <c r="I5" s="34"/>
-      <c r="J5" s="34"/>
-      <c r="K5" s="34"/>
-      <c r="L5" s="34"/>
-      <c r="M5" s="34"/>
-      <c r="N5" s="34"/>
-      <c r="O5" s="34"/>
-      <c r="P5" s="34"/>
-      <c r="Q5" s="34"/>
-      <c r="R5" s="34"/>
-      <c r="S5" s="34"/>
-      <c r="T5" s="34"/>
-      <c r="U5" s="34"/>
-      <c r="V5" s="34"/>
-      <c r="W5" s="34"/>
-      <c r="X5" s="34"/>
-      <c r="Y5" s="34"/>
+      <c r="E5" s="36"/>
+      <c r="F5" s="36"/>
+      <c r="G5" s="36"/>
+      <c r="H5" s="36"/>
+      <c r="I5" s="36"/>
+      <c r="J5" s="36"/>
+      <c r="K5" s="36"/>
+      <c r="L5" s="36"/>
+      <c r="M5" s="36"/>
+      <c r="N5" s="36"/>
+      <c r="O5" s="36"/>
+      <c r="P5" s="36"/>
+      <c r="Q5" s="36"/>
+      <c r="R5" s="36"/>
+      <c r="S5" s="36"/>
+      <c r="T5" s="36"/>
+      <c r="U5" s="36"/>
+      <c r="V5" s="36"/>
+      <c r="W5" s="36"/>
+      <c r="X5" s="36"/>
+      <c r="Y5" s="36"/>
     </row>
     <row r="6" spans="2:25">
-      <c r="B6" s="30" t="s">
+      <c r="B6" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="30"/>
-      <c r="D6" s="34" t="s">
-        <v>0</v>
-      </c>
-      <c r="E6" s="34"/>
-      <c r="F6" s="34"/>
-      <c r="G6" s="34"/>
-      <c r="H6" s="34"/>
-      <c r="I6" s="34"/>
-      <c r="J6" s="34"/>
-      <c r="K6" s="34"/>
-      <c r="L6" s="34"/>
-      <c r="M6" s="34"/>
-      <c r="N6" s="34"/>
-      <c r="O6" s="34"/>
-      <c r="P6" s="34"/>
-      <c r="Q6" s="34"/>
-      <c r="R6" s="34"/>
-      <c r="S6" s="34"/>
-      <c r="T6" s="34"/>
-      <c r="U6" s="34"/>
-      <c r="V6" s="34"/>
-      <c r="W6" s="34"/>
-      <c r="X6" s="34"/>
-      <c r="Y6" s="34"/>
+      <c r="C6" s="32"/>
+      <c r="D6" s="36" t="s">
+        <v>0</v>
+      </c>
+      <c r="E6" s="36"/>
+      <c r="F6" s="36"/>
+      <c r="G6" s="36"/>
+      <c r="H6" s="36"/>
+      <c r="I6" s="36"/>
+      <c r="J6" s="36"/>
+      <c r="K6" s="36"/>
+      <c r="L6" s="36"/>
+      <c r="M6" s="36"/>
+      <c r="N6" s="36"/>
+      <c r="O6" s="36"/>
+      <c r="P6" s="36"/>
+      <c r="Q6" s="36"/>
+      <c r="R6" s="36"/>
+      <c r="S6" s="36"/>
+      <c r="T6" s="36"/>
+      <c r="U6" s="36"/>
+      <c r="V6" s="36"/>
+      <c r="W6" s="36"/>
+      <c r="X6" s="36"/>
+      <c r="Y6" s="36"/>
     </row>
     <row r="7" spans="2:25">
-      <c r="B7" s="31" t="s">
+      <c r="B7" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="31" t="s">
+      <c r="C7" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="29" t="s">
+      <c r="D7" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="E7" s="29"/>
-      <c r="F7" s="29"/>
-      <c r="G7" s="29"/>
-      <c r="H7" s="29"/>
-      <c r="I7" s="29"/>
-      <c r="J7" s="29"/>
-      <c r="K7" s="29"/>
-      <c r="L7" s="29"/>
-      <c r="M7" s="29"/>
-      <c r="N7" s="29"/>
-      <c r="O7" s="29"/>
-      <c r="P7" s="29"/>
-      <c r="Q7" s="29"/>
-      <c r="R7" s="29"/>
-      <c r="S7" s="29"/>
-      <c r="T7" s="29"/>
-      <c r="U7" s="29"/>
-      <c r="V7" s="29"/>
-      <c r="W7" s="29"/>
-      <c r="X7" s="29"/>
-      <c r="Y7" s="29"/>
+      <c r="E7" s="31"/>
+      <c r="F7" s="31"/>
+      <c r="G7" s="31"/>
+      <c r="H7" s="31"/>
+      <c r="I7" s="31"/>
+      <c r="J7" s="31"/>
+      <c r="K7" s="31"/>
+      <c r="L7" s="31"/>
+      <c r="M7" s="31"/>
+      <c r="N7" s="31"/>
+      <c r="O7" s="31"/>
+      <c r="P7" s="31"/>
+      <c r="Q7" s="31"/>
+      <c r="R7" s="31"/>
+      <c r="S7" s="31"/>
+      <c r="T7" s="31"/>
+      <c r="U7" s="31"/>
+      <c r="V7" s="31"/>
+      <c r="W7" s="31"/>
+      <c r="X7" s="31"/>
+      <c r="Y7" s="31"/>
     </row>
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1"/>

--- a/股票模拟建仓模板.xlsx
+++ b/股票模拟建仓模板.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/thomas/Code/github.com/liyi1472/stock-data-onekey/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65AD2B48-1042-2642-A475-F29AA257A070}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7184EA7-BF1E-8448-B68B-A8019BB43C28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="840" yWindow="500" windowWidth="32760" windowHeight="20500" xr2:uid="{D477A090-BE23-214A-A126-EE303093E54E}"/>
   </bookViews>
@@ -455,7 +455,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -529,6 +529,9 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="4" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1008,27 +1011,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="19" customHeight="1">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="29" t="s">
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="30" t="s">
         <v>29</v>
       </c>
-      <c r="E1" s="23" t="s">
+      <c r="E1" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="F1" s="25"/>
-      <c r="G1" s="23" t="s">
+      <c r="F1" s="26"/>
+      <c r="G1" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="H1" s="25"/>
-      <c r="I1" s="23" t="s">
+      <c r="H1" s="26"/>
+      <c r="I1" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="J1" s="24"/>
-      <c r="K1" s="25"/>
+      <c r="J1" s="25"/>
+      <c r="K1" s="26"/>
       <c r="L1" s="5" t="s">
         <v>20</v>
       </c>
@@ -1039,16 +1042,16 @@
       <c r="N1" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="O1" s="7">
-        <f>COUNTIF($M$5:$M$1000000, "&lt;&gt;")</f>
+      <c r="O1" s="23">
+        <f>COUNTIF($A$5:$A$1000000, "&lt;&gt;")-$O$2</f>
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:15">
-      <c r="A2" s="26"/>
-      <c r="B2" s="26"/>
-      <c r="C2" s="26"/>
-      <c r="D2" s="30"/>
+      <c r="A2" s="27"/>
+      <c r="B2" s="27"/>
+      <c r="C2" s="27"/>
+      <c r="D2" s="31"/>
       <c r="E2" s="9" t="s">
         <v>13</v>
       </c>
@@ -1080,27 +1083,27 @@
       <c r="N2" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="O2" s="7">
-        <f>COUNTIF($A$5:$A$1000000, "&lt;&gt;")-$O$1</f>
+      <c r="O2" s="23">
+        <f>COUNTIF($M$5:$M$1000000, "&lt;&gt;")</f>
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:15">
-      <c r="A3" s="27">
-        <v>0</v>
-      </c>
-      <c r="B3" s="28"/>
-      <c r="C3" s="28"/>
+      <c r="A3" s="28">
+        <v>50000</v>
+      </c>
+      <c r="B3" s="29"/>
+      <c r="C3" s="29"/>
       <c r="D3" s="16" t="s">
         <v>30</v>
       </c>
       <c r="E3" s="10">
         <f>$A$3-$G$3</f>
-        <v>0</v>
+        <v>50000</v>
       </c>
       <c r="F3" s="11">
         <f>IF($A$3&gt;0, $E$3/$A$3, 0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G3" s="10">
         <f>SUM($G$5:$G$1000000)</f>
@@ -14143,186 +14146,186 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:25">
-      <c r="B2" s="32" t="s">
+      <c r="B2" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="32" t="s">
+      <c r="C2" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="34" t="s">
+      <c r="D2" s="35" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="34"/>
-      <c r="F2" s="34"/>
-      <c r="G2" s="34"/>
-      <c r="H2" s="34"/>
-      <c r="I2" s="34"/>
-      <c r="J2" s="34"/>
-      <c r="K2" s="34"/>
-      <c r="L2" s="34"/>
-      <c r="M2" s="34"/>
-      <c r="N2" s="34"/>
-      <c r="O2" s="34"/>
-      <c r="P2" s="34"/>
-      <c r="Q2" s="34"/>
-      <c r="R2" s="34"/>
-      <c r="S2" s="34"/>
-      <c r="T2" s="34"/>
-      <c r="U2" s="34"/>
-      <c r="V2" s="34"/>
-      <c r="W2" s="34"/>
-      <c r="X2" s="34"/>
-      <c r="Y2" s="34"/>
+      <c r="E2" s="35"/>
+      <c r="F2" s="35"/>
+      <c r="G2" s="35"/>
+      <c r="H2" s="35"/>
+      <c r="I2" s="35"/>
+      <c r="J2" s="35"/>
+      <c r="K2" s="35"/>
+      <c r="L2" s="35"/>
+      <c r="M2" s="35"/>
+      <c r="N2" s="35"/>
+      <c r="O2" s="35"/>
+      <c r="P2" s="35"/>
+      <c r="Q2" s="35"/>
+      <c r="R2" s="35"/>
+      <c r="S2" s="35"/>
+      <c r="T2" s="35"/>
+      <c r="U2" s="35"/>
+      <c r="V2" s="35"/>
+      <c r="W2" s="35"/>
+      <c r="X2" s="35"/>
+      <c r="Y2" s="35"/>
     </row>
     <row r="3" spans="2:25">
-      <c r="B3" s="32" t="s">
+      <c r="B3" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="32"/>
-      <c r="D3" s="35"/>
-      <c r="E3" s="35"/>
-      <c r="F3" s="35"/>
-      <c r="G3" s="35"/>
-      <c r="H3" s="35"/>
-      <c r="I3" s="35"/>
-      <c r="J3" s="35"/>
-      <c r="K3" s="35"/>
-      <c r="L3" s="35"/>
-      <c r="M3" s="35"/>
-      <c r="N3" s="35"/>
-      <c r="O3" s="35"/>
-      <c r="P3" s="35"/>
-      <c r="Q3" s="35"/>
-      <c r="R3" s="35"/>
-      <c r="S3" s="35"/>
-      <c r="T3" s="35"/>
-      <c r="U3" s="35"/>
-      <c r="V3" s="35"/>
-      <c r="W3" s="35"/>
-      <c r="X3" s="35"/>
-      <c r="Y3" s="35"/>
+      <c r="C3" s="33"/>
+      <c r="D3" s="36"/>
+      <c r="E3" s="36"/>
+      <c r="F3" s="36"/>
+      <c r="G3" s="36"/>
+      <c r="H3" s="36"/>
+      <c r="I3" s="36"/>
+      <c r="J3" s="36"/>
+      <c r="K3" s="36"/>
+      <c r="L3" s="36"/>
+      <c r="M3" s="36"/>
+      <c r="N3" s="36"/>
+      <c r="O3" s="36"/>
+      <c r="P3" s="36"/>
+      <c r="Q3" s="36"/>
+      <c r="R3" s="36"/>
+      <c r="S3" s="36"/>
+      <c r="T3" s="36"/>
+      <c r="U3" s="36"/>
+      <c r="V3" s="36"/>
+      <c r="W3" s="36"/>
+      <c r="X3" s="36"/>
+      <c r="Y3" s="36"/>
     </row>
     <row r="4" spans="2:25">
-      <c r="B4" s="32" t="s">
+      <c r="B4" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="32"/>
-      <c r="D4" s="36" t="s">
+      <c r="C4" s="33"/>
+      <c r="D4" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="E4" s="36"/>
-      <c r="F4" s="36"/>
-      <c r="G4" s="36"/>
-      <c r="H4" s="36"/>
-      <c r="I4" s="36"/>
-      <c r="J4" s="36"/>
-      <c r="K4" s="36"/>
-      <c r="L4" s="36"/>
-      <c r="M4" s="36"/>
-      <c r="N4" s="36"/>
-      <c r="O4" s="36"/>
-      <c r="P4" s="36"/>
-      <c r="Q4" s="36"/>
-      <c r="R4" s="36"/>
-      <c r="S4" s="36"/>
-      <c r="T4" s="36"/>
-      <c r="U4" s="36"/>
-      <c r="V4" s="36"/>
-      <c r="W4" s="36"/>
-      <c r="X4" s="36"/>
-      <c r="Y4" s="36"/>
+      <c r="E4" s="37"/>
+      <c r="F4" s="37"/>
+      <c r="G4" s="37"/>
+      <c r="H4" s="37"/>
+      <c r="I4" s="37"/>
+      <c r="J4" s="37"/>
+      <c r="K4" s="37"/>
+      <c r="L4" s="37"/>
+      <c r="M4" s="37"/>
+      <c r="N4" s="37"/>
+      <c r="O4" s="37"/>
+      <c r="P4" s="37"/>
+      <c r="Q4" s="37"/>
+      <c r="R4" s="37"/>
+      <c r="S4" s="37"/>
+      <c r="T4" s="37"/>
+      <c r="U4" s="37"/>
+      <c r="V4" s="37"/>
+      <c r="W4" s="37"/>
+      <c r="X4" s="37"/>
+      <c r="Y4" s="37"/>
     </row>
     <row r="5" spans="2:25">
-      <c r="B5" s="32" t="s">
+      <c r="B5" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="32"/>
-      <c r="D5" s="36" t="s">
+      <c r="C5" s="33"/>
+      <c r="D5" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="E5" s="36"/>
-      <c r="F5" s="36"/>
-      <c r="G5" s="36"/>
-      <c r="H5" s="36"/>
-      <c r="I5" s="36"/>
-      <c r="J5" s="36"/>
-      <c r="K5" s="36"/>
-      <c r="L5" s="36"/>
-      <c r="M5" s="36"/>
-      <c r="N5" s="36"/>
-      <c r="O5" s="36"/>
-      <c r="P5" s="36"/>
-      <c r="Q5" s="36"/>
-      <c r="R5" s="36"/>
-      <c r="S5" s="36"/>
-      <c r="T5" s="36"/>
-      <c r="U5" s="36"/>
-      <c r="V5" s="36"/>
-      <c r="W5" s="36"/>
-      <c r="X5" s="36"/>
-      <c r="Y5" s="36"/>
+      <c r="E5" s="37"/>
+      <c r="F5" s="37"/>
+      <c r="G5" s="37"/>
+      <c r="H5" s="37"/>
+      <c r="I5" s="37"/>
+      <c r="J5" s="37"/>
+      <c r="K5" s="37"/>
+      <c r="L5" s="37"/>
+      <c r="M5" s="37"/>
+      <c r="N5" s="37"/>
+      <c r="O5" s="37"/>
+      <c r="P5" s="37"/>
+      <c r="Q5" s="37"/>
+      <c r="R5" s="37"/>
+      <c r="S5" s="37"/>
+      <c r="T5" s="37"/>
+      <c r="U5" s="37"/>
+      <c r="V5" s="37"/>
+      <c r="W5" s="37"/>
+      <c r="X5" s="37"/>
+      <c r="Y5" s="37"/>
     </row>
     <row r="6" spans="2:25">
-      <c r="B6" s="32" t="s">
+      <c r="B6" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="32"/>
-      <c r="D6" s="36" t="s">
-        <v>0</v>
-      </c>
-      <c r="E6" s="36"/>
-      <c r="F6" s="36"/>
-      <c r="G6" s="36"/>
-      <c r="H6" s="36"/>
-      <c r="I6" s="36"/>
-      <c r="J6" s="36"/>
-      <c r="K6" s="36"/>
-      <c r="L6" s="36"/>
-      <c r="M6" s="36"/>
-      <c r="N6" s="36"/>
-      <c r="O6" s="36"/>
-      <c r="P6" s="36"/>
-      <c r="Q6" s="36"/>
-      <c r="R6" s="36"/>
-      <c r="S6" s="36"/>
-      <c r="T6" s="36"/>
-      <c r="U6" s="36"/>
-      <c r="V6" s="36"/>
-      <c r="W6" s="36"/>
-      <c r="X6" s="36"/>
-      <c r="Y6" s="36"/>
+      <c r="C6" s="33"/>
+      <c r="D6" s="37" t="s">
+        <v>0</v>
+      </c>
+      <c r="E6" s="37"/>
+      <c r="F6" s="37"/>
+      <c r="G6" s="37"/>
+      <c r="H6" s="37"/>
+      <c r="I6" s="37"/>
+      <c r="J6" s="37"/>
+      <c r="K6" s="37"/>
+      <c r="L6" s="37"/>
+      <c r="M6" s="37"/>
+      <c r="N6" s="37"/>
+      <c r="O6" s="37"/>
+      <c r="P6" s="37"/>
+      <c r="Q6" s="37"/>
+      <c r="R6" s="37"/>
+      <c r="S6" s="37"/>
+      <c r="T6" s="37"/>
+      <c r="U6" s="37"/>
+      <c r="V6" s="37"/>
+      <c r="W6" s="37"/>
+      <c r="X6" s="37"/>
+      <c r="Y6" s="37"/>
     </row>
     <row r="7" spans="2:25">
-      <c r="B7" s="33" t="s">
+      <c r="B7" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="33" t="s">
+      <c r="C7" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="31" t="s">
+      <c r="D7" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="E7" s="31"/>
-      <c r="F7" s="31"/>
-      <c r="G7" s="31"/>
-      <c r="H7" s="31"/>
-      <c r="I7" s="31"/>
-      <c r="J7" s="31"/>
-      <c r="K7" s="31"/>
-      <c r="L7" s="31"/>
-      <c r="M7" s="31"/>
-      <c r="N7" s="31"/>
-      <c r="O7" s="31"/>
-      <c r="P7" s="31"/>
-      <c r="Q7" s="31"/>
-      <c r="R7" s="31"/>
-      <c r="S7" s="31"/>
-      <c r="T7" s="31"/>
-      <c r="U7" s="31"/>
-      <c r="V7" s="31"/>
-      <c r="W7" s="31"/>
-      <c r="X7" s="31"/>
-      <c r="Y7" s="31"/>
+      <c r="E7" s="32"/>
+      <c r="F7" s="32"/>
+      <c r="G7" s="32"/>
+      <c r="H7" s="32"/>
+      <c r="I7" s="32"/>
+      <c r="J7" s="32"/>
+      <c r="K7" s="32"/>
+      <c r="L7" s="32"/>
+      <c r="M7" s="32"/>
+      <c r="N7" s="32"/>
+      <c r="O7" s="32"/>
+      <c r="P7" s="32"/>
+      <c r="Q7" s="32"/>
+      <c r="R7" s="32"/>
+      <c r="S7" s="32"/>
+      <c r="T7" s="32"/>
+      <c r="U7" s="32"/>
+      <c r="V7" s="32"/>
+      <c r="W7" s="32"/>
+      <c r="X7" s="32"/>
+      <c r="Y7" s="32"/>
     </row>
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1"/>

--- a/股票模拟建仓模板.xlsx
+++ b/股票模拟建仓模板.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/thomas/Code/github.com/liyi1472/stock-data-onekey/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7184EA7-BF1E-8448-B68B-A8019BB43C28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7555D4FD-3E33-A149-9AD3-4E8A4BF3327D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="840" yWindow="500" windowWidth="32760" windowHeight="20500" xr2:uid="{D477A090-BE23-214A-A126-EE303093E54E}"/>
+    <workbookView xWindow="840" yWindow="500" windowWidth="32760" windowHeight="20500" activeTab="1" xr2:uid="{D477A090-BE23-214A-A126-EE303093E54E}"/>
   </bookViews>
   <sheets>
     <sheet name="仓位管理" sheetId="1" r:id="rId1"/>
@@ -983,7 +983,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF28F8D6-90CD-5F4C-B88F-9813F153E0B3}">
   <dimension ref="A1:O500"/>
   <sheetViews>
-    <sheetView showRowColHeaders="0" tabSelected="1" zoomScale="154" zoomScaleNormal="154" zoomScaleSheetLayoutView="180" workbookViewId="0">
+    <sheetView showRowColHeaders="0" zoomScale="154" zoomScaleNormal="154" zoomScaleSheetLayoutView="180" workbookViewId="0">
       <pane xSplit="15" ySplit="4" topLeftCell="P5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="P1" sqref="P1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
@@ -1106,7 +1106,7 @@
         <v>1</v>
       </c>
       <c r="G3" s="10">
-        <f>SUM($G$5:$G$1000000)</f>
+        <f>SUMIF($M$5:$M$1000000, "", $G$5:$G$1000000)</f>
         <v>0</v>
       </c>
       <c r="H3" s="11">
@@ -1201,7 +1201,7 @@
         <v/>
       </c>
       <c r="L5" s="14" t="str">
-        <f>IF($D5&gt;10%,"（止盈）",IF($D5&lt;-5%,"（止损）",""))</f>
+        <f ca="1">IF($J5&gt;1, IF($D5&gt;10%,"（止盈）",IF($D5&lt;-5%,"（止损）","")), "")</f>
         <v/>
       </c>
       <c r="N5" s="4" t="str">
@@ -1227,7 +1227,7 @@
         <v/>
       </c>
       <c r="L6" s="14" t="str">
-        <f t="shared" ref="L6:L69" si="3">IF($D6&gt;10%,"（止盈）",IF($D6&lt;-5%,"（止损）",""))</f>
+        <f t="shared" ref="L6:L69" ca="1" si="3">IF($J6&gt;1, IF($D6&gt;10%,"（止盈）",IF($D6&lt;-5%,"（止损）","")), "")</f>
         <v/>
       </c>
       <c r="N6" s="4" t="str">
@@ -1253,7 +1253,7 @@
         <v/>
       </c>
       <c r="L7" s="14" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
       <c r="N7" s="4" t="str">
@@ -1279,7 +1279,7 @@
         <v/>
       </c>
       <c r="L8" s="14" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
       <c r="N8" s="4" t="str">
@@ -1305,7 +1305,7 @@
         <v/>
       </c>
       <c r="L9" s="14" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
       <c r="N9" s="4" t="str">
@@ -1331,7 +1331,7 @@
         <v/>
       </c>
       <c r="L10" s="14" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
       <c r="N10" s="4" t="str">
@@ -1357,7 +1357,7 @@
         <v/>
       </c>
       <c r="L11" s="14" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
       <c r="N11" s="4" t="str">
@@ -1383,7 +1383,7 @@
         <v/>
       </c>
       <c r="L12" s="14" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
       <c r="N12" s="4" t="str">
@@ -1409,7 +1409,7 @@
         <v/>
       </c>
       <c r="L13" s="14" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
       <c r="N13" s="4" t="str">
@@ -1435,7 +1435,7 @@
         <v/>
       </c>
       <c r="L14" s="14" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
       <c r="N14" s="4" t="str">
@@ -1461,7 +1461,7 @@
         <v/>
       </c>
       <c r="L15" s="14" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
       <c r="N15" s="4" t="str">
@@ -1487,7 +1487,7 @@
         <v/>
       </c>
       <c r="L16" s="14" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
       <c r="N16" s="4" t="str">
@@ -1513,7 +1513,7 @@
         <v/>
       </c>
       <c r="L17" s="14" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
       <c r="N17" s="4" t="str">
@@ -1539,7 +1539,7 @@
         <v/>
       </c>
       <c r="L18" s="14" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
       <c r="N18" s="4" t="str">
@@ -1565,7 +1565,7 @@
         <v/>
       </c>
       <c r="L19" s="14" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
       <c r="N19" s="4" t="str">
@@ -1591,7 +1591,7 @@
         <v/>
       </c>
       <c r="L20" s="14" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
       <c r="N20" s="4" t="str">
@@ -1617,7 +1617,7 @@
         <v/>
       </c>
       <c r="L21" s="14" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
       <c r="N21" s="4" t="str">
@@ -1643,7 +1643,7 @@
         <v/>
       </c>
       <c r="L22" s="14" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
       <c r="N22" s="4" t="str">
@@ -1669,7 +1669,7 @@
         <v/>
       </c>
       <c r="L23" s="14" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
       <c r="N23" s="4" t="str">
@@ -1695,7 +1695,7 @@
         <v/>
       </c>
       <c r="L24" s="14" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
       <c r="N24" s="4" t="str">
@@ -1721,7 +1721,7 @@
         <v/>
       </c>
       <c r="L25" s="14" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
       <c r="N25" s="4" t="str">
@@ -1747,7 +1747,7 @@
         <v/>
       </c>
       <c r="L26" s="14" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
       <c r="N26" s="4" t="str">
@@ -1773,7 +1773,7 @@
         <v/>
       </c>
       <c r="L27" s="14" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
       <c r="N27" s="4" t="str">
@@ -1799,7 +1799,7 @@
         <v/>
       </c>
       <c r="L28" s="14" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
       <c r="N28" s="4" t="str">
@@ -1825,7 +1825,7 @@
         <v/>
       </c>
       <c r="L29" s="14" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
       <c r="N29" s="4" t="str">
@@ -1851,7 +1851,7 @@
         <v/>
       </c>
       <c r="L30" s="14" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
       <c r="N30" s="4" t="str">
@@ -1877,7 +1877,7 @@
         <v/>
       </c>
       <c r="L31" s="14" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
       <c r="N31" s="4" t="str">
@@ -1903,7 +1903,7 @@
         <v/>
       </c>
       <c r="L32" s="14" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
       <c r="N32" s="4" t="str">
@@ -1929,7 +1929,7 @@
         <v/>
       </c>
       <c r="L33" s="14" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
       <c r="N33" s="4" t="str">
@@ -1955,7 +1955,7 @@
         <v/>
       </c>
       <c r="L34" s="14" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
       <c r="N34" s="4" t="str">
@@ -1981,7 +1981,7 @@
         <v/>
       </c>
       <c r="L35" s="14" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
       <c r="N35" s="4" t="str">
@@ -2007,7 +2007,7 @@
         <v/>
       </c>
       <c r="L36" s="14" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
       <c r="N36" s="4" t="str">
@@ -2033,7 +2033,7 @@
         <v/>
       </c>
       <c r="L37" s="14" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
       <c r="N37" s="4" t="str">
@@ -2059,7 +2059,7 @@
         <v/>
       </c>
       <c r="L38" s="14" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
       <c r="N38" s="4" t="str">
@@ -2085,7 +2085,7 @@
         <v/>
       </c>
       <c r="L39" s="14" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
       <c r="N39" s="4" t="str">
@@ -2111,7 +2111,7 @@
         <v/>
       </c>
       <c r="L40" s="14" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
       <c r="N40" s="4" t="str">
@@ -2137,7 +2137,7 @@
         <v/>
       </c>
       <c r="L41" s="14" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
       <c r="N41" s="4" t="str">
@@ -2163,7 +2163,7 @@
         <v/>
       </c>
       <c r="L42" s="14" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
       <c r="N42" s="4" t="str">
@@ -2189,7 +2189,7 @@
         <v/>
       </c>
       <c r="L43" s="14" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
       <c r="N43" s="4" t="str">
@@ -2215,7 +2215,7 @@
         <v/>
       </c>
       <c r="L44" s="14" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
       <c r="N44" s="4" t="str">
@@ -2241,7 +2241,7 @@
         <v/>
       </c>
       <c r="L45" s="14" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
       <c r="N45" s="4" t="str">
@@ -2267,7 +2267,7 @@
         <v/>
       </c>
       <c r="L46" s="14" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
       <c r="N46" s="4" t="str">
@@ -2293,7 +2293,7 @@
         <v/>
       </c>
       <c r="L47" s="14" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
       <c r="N47" s="4" t="str">
@@ -2319,7 +2319,7 @@
         <v/>
       </c>
       <c r="L48" s="14" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
       <c r="N48" s="4" t="str">
@@ -2345,7 +2345,7 @@
         <v/>
       </c>
       <c r="L49" s="14" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
       <c r="N49" s="4" t="str">
@@ -2371,7 +2371,7 @@
         <v/>
       </c>
       <c r="L50" s="14" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
       <c r="N50" s="4" t="str">
@@ -2397,7 +2397,7 @@
         <v/>
       </c>
       <c r="L51" s="14" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
       <c r="N51" s="4" t="str">
@@ -2423,7 +2423,7 @@
         <v/>
       </c>
       <c r="L52" s="14" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
       <c r="N52" s="4" t="str">
@@ -2449,7 +2449,7 @@
         <v/>
       </c>
       <c r="L53" s="14" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
       <c r="N53" s="4" t="str">
@@ -2475,7 +2475,7 @@
         <v/>
       </c>
       <c r="L54" s="14" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
       <c r="N54" s="4" t="str">
@@ -2501,7 +2501,7 @@
         <v/>
       </c>
       <c r="L55" s="14" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
       <c r="N55" s="4" t="str">
@@ -2527,7 +2527,7 @@
         <v/>
       </c>
       <c r="L56" s="14" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
       <c r="N56" s="4" t="str">
@@ -2553,7 +2553,7 @@
         <v/>
       </c>
       <c r="L57" s="14" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
       <c r="N57" s="4" t="str">
@@ -2579,7 +2579,7 @@
         <v/>
       </c>
       <c r="L58" s="14" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
       <c r="N58" s="4" t="str">
@@ -2605,7 +2605,7 @@
         <v/>
       </c>
       <c r="L59" s="14" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
       <c r="N59" s="4" t="str">
@@ -2631,7 +2631,7 @@
         <v/>
       </c>
       <c r="L60" s="14" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
       <c r="N60" s="4" t="str">
@@ -2657,7 +2657,7 @@
         <v/>
       </c>
       <c r="L61" s="14" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
       <c r="N61" s="4" t="str">
@@ -2683,7 +2683,7 @@
         <v/>
       </c>
       <c r="L62" s="14" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
       <c r="N62" s="4" t="str">
@@ -2709,7 +2709,7 @@
         <v/>
       </c>
       <c r="L63" s="14" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
       <c r="N63" s="4" t="str">
@@ -2735,7 +2735,7 @@
         <v/>
       </c>
       <c r="L64" s="14" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
       <c r="N64" s="4" t="str">
@@ -2761,7 +2761,7 @@
         <v/>
       </c>
       <c r="L65" s="14" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
       <c r="N65" s="4" t="str">
@@ -2787,7 +2787,7 @@
         <v/>
       </c>
       <c r="L66" s="14" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
       <c r="N66" s="4" t="str">
@@ -2813,7 +2813,7 @@
         <v/>
       </c>
       <c r="L67" s="14" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
       <c r="N67" s="4" t="str">
@@ -2839,7 +2839,7 @@
         <v/>
       </c>
       <c r="L68" s="14" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
       <c r="N68" s="4" t="str">
@@ -2865,7 +2865,7 @@
         <v/>
       </c>
       <c r="L69" s="14" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
       <c r="N69" s="4" t="str">
@@ -2891,7 +2891,7 @@
         <v/>
       </c>
       <c r="L70" s="14" t="str">
-        <f t="shared" ref="L70:L133" si="9">IF($D70&gt;10%,"（止盈）",IF($D70&lt;-5%,"（止损）",""))</f>
+        <f t="shared" ref="L70:L133" ca="1" si="9">IF($J70&gt;1, IF($D70&gt;10%,"（止盈）",IF($D70&lt;-5%,"（止损）","")), "")</f>
         <v/>
       </c>
       <c r="N70" s="4" t="str">
@@ -2917,7 +2917,7 @@
         <v/>
       </c>
       <c r="L71" s="14" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="N71" s="4" t="str">
@@ -2943,7 +2943,7 @@
         <v/>
       </c>
       <c r="L72" s="14" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="N72" s="4" t="str">
@@ -2969,7 +2969,7 @@
         <v/>
       </c>
       <c r="L73" s="14" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="N73" s="4" t="str">
@@ -2995,7 +2995,7 @@
         <v/>
       </c>
       <c r="L74" s="14" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="N74" s="4" t="str">
@@ -3021,7 +3021,7 @@
         <v/>
       </c>
       <c r="L75" s="14" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="N75" s="4" t="str">
@@ -3047,7 +3047,7 @@
         <v/>
       </c>
       <c r="L76" s="14" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="N76" s="4" t="str">
@@ -3073,7 +3073,7 @@
         <v/>
       </c>
       <c r="L77" s="14" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="N77" s="4" t="str">
@@ -3099,7 +3099,7 @@
         <v/>
       </c>
       <c r="L78" s="14" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="N78" s="4" t="str">
@@ -3125,7 +3125,7 @@
         <v/>
       </c>
       <c r="L79" s="14" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="N79" s="4" t="str">
@@ -3151,7 +3151,7 @@
         <v/>
       </c>
       <c r="L80" s="14" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="N80" s="4" t="str">
@@ -3177,7 +3177,7 @@
         <v/>
       </c>
       <c r="L81" s="14" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="N81" s="4" t="str">
@@ -3203,7 +3203,7 @@
         <v/>
       </c>
       <c r="L82" s="14" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="N82" s="4" t="str">
@@ -3229,7 +3229,7 @@
         <v/>
       </c>
       <c r="L83" s="14" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="N83" s="4" t="str">
@@ -3255,7 +3255,7 @@
         <v/>
       </c>
       <c r="L84" s="14" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="N84" s="4" t="str">
@@ -3281,7 +3281,7 @@
         <v/>
       </c>
       <c r="L85" s="14" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="N85" s="4" t="str">
@@ -3307,7 +3307,7 @@
         <v/>
       </c>
       <c r="L86" s="14" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="N86" s="4" t="str">
@@ -3333,7 +3333,7 @@
         <v/>
       </c>
       <c r="L87" s="14" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="N87" s="4" t="str">
@@ -3359,7 +3359,7 @@
         <v/>
       </c>
       <c r="L88" s="14" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="N88" s="4" t="str">
@@ -3385,7 +3385,7 @@
         <v/>
       </c>
       <c r="L89" s="14" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="N89" s="4" t="str">
@@ -3411,7 +3411,7 @@
         <v/>
       </c>
       <c r="L90" s="14" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="N90" s="4" t="str">
@@ -3437,7 +3437,7 @@
         <v/>
       </c>
       <c r="L91" s="14" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="N91" s="4" t="str">
@@ -3463,7 +3463,7 @@
         <v/>
       </c>
       <c r="L92" s="14" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="N92" s="4" t="str">
@@ -3489,7 +3489,7 @@
         <v/>
       </c>
       <c r="L93" s="14" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="N93" s="4" t="str">
@@ -3515,7 +3515,7 @@
         <v/>
       </c>
       <c r="L94" s="14" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="N94" s="4" t="str">
@@ -3541,7 +3541,7 @@
         <v/>
       </c>
       <c r="L95" s="14" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="N95" s="4" t="str">
@@ -3567,7 +3567,7 @@
         <v/>
       </c>
       <c r="L96" s="14" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="N96" s="4" t="str">
@@ -3593,7 +3593,7 @@
         <v/>
       </c>
       <c r="L97" s="14" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="N97" s="4" t="str">
@@ -3619,7 +3619,7 @@
         <v/>
       </c>
       <c r="L98" s="14" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="N98" s="4" t="str">
@@ -3645,7 +3645,7 @@
         <v/>
       </c>
       <c r="L99" s="14" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="N99" s="4" t="str">
@@ -3671,7 +3671,7 @@
         <v/>
       </c>
       <c r="L100" s="14" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="N100" s="4" t="str">
@@ -3697,7 +3697,7 @@
         <v/>
       </c>
       <c r="L101" s="14" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="N101" s="4" t="str">
@@ -3723,7 +3723,7 @@
         <v/>
       </c>
       <c r="L102" s="14" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="N102" s="4" t="str">
@@ -3749,7 +3749,7 @@
         <v/>
       </c>
       <c r="L103" s="14" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="N103" s="4" t="str">
@@ -3775,7 +3775,7 @@
         <v/>
       </c>
       <c r="L104" s="14" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="N104" s="4" t="str">
@@ -3801,7 +3801,7 @@
         <v/>
       </c>
       <c r="L105" s="14" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="N105" s="4" t="str">
@@ -3827,7 +3827,7 @@
         <v/>
       </c>
       <c r="L106" s="14" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="N106" s="4" t="str">
@@ -3853,7 +3853,7 @@
         <v/>
       </c>
       <c r="L107" s="14" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="N107" s="4" t="str">
@@ -3879,7 +3879,7 @@
         <v/>
       </c>
       <c r="L108" s="14" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="N108" s="4" t="str">
@@ -3905,7 +3905,7 @@
         <v/>
       </c>
       <c r="L109" s="14" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="N109" s="4" t="str">
@@ -3931,7 +3931,7 @@
         <v/>
       </c>
       <c r="L110" s="14" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="N110" s="4" t="str">
@@ -3957,7 +3957,7 @@
         <v/>
       </c>
       <c r="L111" s="14" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="N111" s="4" t="str">
@@ -3983,7 +3983,7 @@
         <v/>
       </c>
       <c r="L112" s="14" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="N112" s="4" t="str">
@@ -4009,7 +4009,7 @@
         <v/>
       </c>
       <c r="L113" s="14" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="N113" s="4" t="str">
@@ -4035,7 +4035,7 @@
         <v/>
       </c>
       <c r="L114" s="14" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="N114" s="4" t="str">
@@ -4061,7 +4061,7 @@
         <v/>
       </c>
       <c r="L115" s="14" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="N115" s="4" t="str">
@@ -4087,7 +4087,7 @@
         <v/>
       </c>
       <c r="L116" s="14" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="N116" s="4" t="str">
@@ -4113,7 +4113,7 @@
         <v/>
       </c>
       <c r="L117" s="14" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="N117" s="4" t="str">
@@ -4139,7 +4139,7 @@
         <v/>
       </c>
       <c r="L118" s="14" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="N118" s="4" t="str">
@@ -4165,7 +4165,7 @@
         <v/>
       </c>
       <c r="L119" s="14" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="N119" s="4" t="str">
@@ -4191,7 +4191,7 @@
         <v/>
       </c>
       <c r="L120" s="14" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="N120" s="4" t="str">
@@ -4217,7 +4217,7 @@
         <v/>
       </c>
       <c r="L121" s="14" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="N121" s="4" t="str">
@@ -4243,7 +4243,7 @@
         <v/>
       </c>
       <c r="L122" s="14" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="N122" s="4" t="str">
@@ -4269,7 +4269,7 @@
         <v/>
       </c>
       <c r="L123" s="14" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="N123" s="4" t="str">
@@ -4295,7 +4295,7 @@
         <v/>
       </c>
       <c r="L124" s="14" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="N124" s="4" t="str">
@@ -4321,7 +4321,7 @@
         <v/>
       </c>
       <c r="L125" s="14" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="N125" s="4" t="str">
@@ -4347,7 +4347,7 @@
         <v/>
       </c>
       <c r="L126" s="14" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="N126" s="4" t="str">
@@ -4373,7 +4373,7 @@
         <v/>
       </c>
       <c r="L127" s="14" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="N127" s="4" t="str">
@@ -4399,7 +4399,7 @@
         <v/>
       </c>
       <c r="L128" s="14" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="N128" s="4" t="str">
@@ -4425,7 +4425,7 @@
         <v/>
       </c>
       <c r="L129" s="14" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="N129" s="4" t="str">
@@ -4451,7 +4451,7 @@
         <v/>
       </c>
       <c r="L130" s="14" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="N130" s="4" t="str">
@@ -4477,7 +4477,7 @@
         <v/>
       </c>
       <c r="L131" s="14" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="N131" s="4" t="str">
@@ -4503,7 +4503,7 @@
         <v/>
       </c>
       <c r="L132" s="14" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="N132" s="4" t="str">
@@ -4529,7 +4529,7 @@
         <v/>
       </c>
       <c r="L133" s="14" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="N133" s="4" t="str">
@@ -4555,7 +4555,7 @@
         <v/>
       </c>
       <c r="L134" s="14" t="str">
-        <f t="shared" ref="L134:L197" si="15">IF($D134&gt;10%,"（止盈）",IF($D134&lt;-5%,"（止损）",""))</f>
+        <f t="shared" ref="L134:L197" ca="1" si="15">IF($J134&gt;1, IF($D134&gt;10%,"（止盈）",IF($D134&lt;-5%,"（止损）","")), "")</f>
         <v/>
       </c>
       <c r="N134" s="4" t="str">
@@ -4581,7 +4581,7 @@
         <v/>
       </c>
       <c r="L135" s="14" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="N135" s="4" t="str">
@@ -4607,7 +4607,7 @@
         <v/>
       </c>
       <c r="L136" s="14" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="N136" s="4" t="str">
@@ -4633,7 +4633,7 @@
         <v/>
       </c>
       <c r="L137" s="14" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="N137" s="4" t="str">
@@ -4659,7 +4659,7 @@
         <v/>
       </c>
       <c r="L138" s="14" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="N138" s="4" t="str">
@@ -4685,7 +4685,7 @@
         <v/>
       </c>
       <c r="L139" s="14" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="N139" s="4" t="str">
@@ -4711,7 +4711,7 @@
         <v/>
       </c>
       <c r="L140" s="14" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="N140" s="4" t="str">
@@ -4737,7 +4737,7 @@
         <v/>
       </c>
       <c r="L141" s="14" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="N141" s="4" t="str">
@@ -4763,7 +4763,7 @@
         <v/>
       </c>
       <c r="L142" s="14" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="N142" s="4" t="str">
@@ -4789,7 +4789,7 @@
         <v/>
       </c>
       <c r="L143" s="14" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="N143" s="4" t="str">
@@ -4815,7 +4815,7 @@
         <v/>
       </c>
       <c r="L144" s="14" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="N144" s="4" t="str">
@@ -4841,7 +4841,7 @@
         <v/>
       </c>
       <c r="L145" s="14" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="N145" s="4" t="str">
@@ -4867,7 +4867,7 @@
         <v/>
       </c>
       <c r="L146" s="14" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="N146" s="4" t="str">
@@ -4893,7 +4893,7 @@
         <v/>
       </c>
       <c r="L147" s="14" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="N147" s="4" t="str">
@@ -4919,7 +4919,7 @@
         <v/>
       </c>
       <c r="L148" s="14" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="N148" s="4" t="str">
@@ -4945,7 +4945,7 @@
         <v/>
       </c>
       <c r="L149" s="14" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="N149" s="4" t="str">
@@ -4971,7 +4971,7 @@
         <v/>
       </c>
       <c r="L150" s="14" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="N150" s="4" t="str">
@@ -4997,7 +4997,7 @@
         <v/>
       </c>
       <c r="L151" s="14" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="N151" s="4" t="str">
@@ -5023,7 +5023,7 @@
         <v/>
       </c>
       <c r="L152" s="14" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="N152" s="4" t="str">
@@ -5049,7 +5049,7 @@
         <v/>
       </c>
       <c r="L153" s="14" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="N153" s="4" t="str">
@@ -5075,7 +5075,7 @@
         <v/>
       </c>
       <c r="L154" s="14" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="N154" s="4" t="str">
@@ -5101,7 +5101,7 @@
         <v/>
       </c>
       <c r="L155" s="14" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="N155" s="4" t="str">
@@ -5127,7 +5127,7 @@
         <v/>
       </c>
       <c r="L156" s="14" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="N156" s="4" t="str">
@@ -5153,7 +5153,7 @@
         <v/>
       </c>
       <c r="L157" s="14" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="N157" s="4" t="str">
@@ -5179,7 +5179,7 @@
         <v/>
       </c>
       <c r="L158" s="14" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="N158" s="4" t="str">
@@ -5205,7 +5205,7 @@
         <v/>
       </c>
       <c r="L159" s="14" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="N159" s="4" t="str">
@@ -5231,7 +5231,7 @@
         <v/>
       </c>
       <c r="L160" s="14" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="N160" s="4" t="str">
@@ -5257,7 +5257,7 @@
         <v/>
       </c>
       <c r="L161" s="14" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="N161" s="4" t="str">
@@ -5283,7 +5283,7 @@
         <v/>
       </c>
       <c r="L162" s="14" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="N162" s="4" t="str">
@@ -5309,7 +5309,7 @@
         <v/>
       </c>
       <c r="L163" s="14" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="N163" s="4" t="str">
@@ -5335,7 +5335,7 @@
         <v/>
       </c>
       <c r="L164" s="14" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="N164" s="4" t="str">
@@ -5361,7 +5361,7 @@
         <v/>
       </c>
       <c r="L165" s="14" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="N165" s="4" t="str">
@@ -5387,7 +5387,7 @@
         <v/>
       </c>
       <c r="L166" s="14" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="N166" s="4" t="str">
@@ -5413,7 +5413,7 @@
         <v/>
       </c>
       <c r="L167" s="14" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="N167" s="4" t="str">
@@ -5439,7 +5439,7 @@
         <v/>
       </c>
       <c r="L168" s="14" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="N168" s="4" t="str">
@@ -5465,7 +5465,7 @@
         <v/>
       </c>
       <c r="L169" s="14" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="N169" s="4" t="str">
@@ -5491,7 +5491,7 @@
         <v/>
       </c>
       <c r="L170" s="14" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="N170" s="4" t="str">
@@ -5517,7 +5517,7 @@
         <v/>
       </c>
       <c r="L171" s="14" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="N171" s="4" t="str">
@@ -5543,7 +5543,7 @@
         <v/>
       </c>
       <c r="L172" s="14" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="N172" s="4" t="str">
@@ -5569,7 +5569,7 @@
         <v/>
       </c>
       <c r="L173" s="14" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="N173" s="4" t="str">
@@ -5595,7 +5595,7 @@
         <v/>
       </c>
       <c r="L174" s="14" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="N174" s="4" t="str">
@@ -5621,7 +5621,7 @@
         <v/>
       </c>
       <c r="L175" s="14" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="N175" s="4" t="str">
@@ -5647,7 +5647,7 @@
         <v/>
       </c>
       <c r="L176" s="14" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="N176" s="4" t="str">
@@ -5673,7 +5673,7 @@
         <v/>
       </c>
       <c r="L177" s="14" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="N177" s="4" t="str">
@@ -5699,7 +5699,7 @@
         <v/>
       </c>
       <c r="L178" s="14" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="N178" s="4" t="str">
@@ -5725,7 +5725,7 @@
         <v/>
       </c>
       <c r="L179" s="14" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="N179" s="4" t="str">
@@ -5751,7 +5751,7 @@
         <v/>
       </c>
       <c r="L180" s="14" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="N180" s="4" t="str">
@@ -5777,7 +5777,7 @@
         <v/>
       </c>
       <c r="L181" s="14" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="N181" s="4" t="str">
@@ -5803,7 +5803,7 @@
         <v/>
       </c>
       <c r="L182" s="14" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="N182" s="4" t="str">
@@ -5829,7 +5829,7 @@
         <v/>
       </c>
       <c r="L183" s="14" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="N183" s="4" t="str">
@@ -5855,7 +5855,7 @@
         <v/>
       </c>
       <c r="L184" s="14" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="N184" s="4" t="str">
@@ -5881,7 +5881,7 @@
         <v/>
       </c>
       <c r="L185" s="14" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="N185" s="4" t="str">
@@ -5907,7 +5907,7 @@
         <v/>
       </c>
       <c r="L186" s="14" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="N186" s="4" t="str">
@@ -5933,7 +5933,7 @@
         <v/>
       </c>
       <c r="L187" s="14" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="N187" s="4" t="str">
@@ -5959,7 +5959,7 @@
         <v/>
       </c>
       <c r="L188" s="14" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="N188" s="4" t="str">
@@ -5985,7 +5985,7 @@
         <v/>
       </c>
       <c r="L189" s="14" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="N189" s="4" t="str">
@@ -6011,7 +6011,7 @@
         <v/>
       </c>
       <c r="L190" s="14" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="N190" s="4" t="str">
@@ -6037,7 +6037,7 @@
         <v/>
       </c>
       <c r="L191" s="14" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="N191" s="4" t="str">
@@ -6063,7 +6063,7 @@
         <v/>
       </c>
       <c r="L192" s="14" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="N192" s="4" t="str">
@@ -6089,7 +6089,7 @@
         <v/>
       </c>
       <c r="L193" s="14" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="N193" s="4" t="str">
@@ -6115,7 +6115,7 @@
         <v/>
       </c>
       <c r="L194" s="14" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="N194" s="4" t="str">
@@ -6141,7 +6141,7 @@
         <v/>
       </c>
       <c r="L195" s="14" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="N195" s="4" t="str">
@@ -6167,7 +6167,7 @@
         <v/>
       </c>
       <c r="L196" s="14" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="N196" s="4" t="str">
@@ -6193,7 +6193,7 @@
         <v/>
       </c>
       <c r="L197" s="14" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="N197" s="4" t="str">
@@ -6219,7 +6219,7 @@
         <v/>
       </c>
       <c r="L198" s="14" t="str">
-        <f t="shared" ref="L198:L261" si="21">IF($D198&gt;10%,"（止盈）",IF($D198&lt;-5%,"（止损）",""))</f>
+        <f t="shared" ref="L198:L261" ca="1" si="21">IF($J198&gt;1, IF($D198&gt;10%,"（止盈）",IF($D198&lt;-5%,"（止损）","")), "")</f>
         <v/>
       </c>
       <c r="N198" s="4" t="str">
@@ -6245,7 +6245,7 @@
         <v/>
       </c>
       <c r="L199" s="14" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="N199" s="4" t="str">
@@ -6271,7 +6271,7 @@
         <v/>
       </c>
       <c r="L200" s="14" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="N200" s="4" t="str">
@@ -6297,7 +6297,7 @@
         <v/>
       </c>
       <c r="L201" s="14" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="N201" s="4" t="str">
@@ -6323,7 +6323,7 @@
         <v/>
       </c>
       <c r="L202" s="14" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="N202" s="4" t="str">
@@ -6349,7 +6349,7 @@
         <v/>
       </c>
       <c r="L203" s="14" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="N203" s="4" t="str">
@@ -6375,7 +6375,7 @@
         <v/>
       </c>
       <c r="L204" s="14" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="N204" s="4" t="str">
@@ -6401,7 +6401,7 @@
         <v/>
       </c>
       <c r="L205" s="14" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="N205" s="4" t="str">
@@ -6427,7 +6427,7 @@
         <v/>
       </c>
       <c r="L206" s="14" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="N206" s="4" t="str">
@@ -6453,7 +6453,7 @@
         <v/>
       </c>
       <c r="L207" s="14" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="N207" s="4" t="str">
@@ -6479,7 +6479,7 @@
         <v/>
       </c>
       <c r="L208" s="14" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="N208" s="4" t="str">
@@ -6505,7 +6505,7 @@
         <v/>
       </c>
       <c r="L209" s="14" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="N209" s="4" t="str">
@@ -6531,7 +6531,7 @@
         <v/>
       </c>
       <c r="L210" s="14" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="N210" s="4" t="str">
@@ -6557,7 +6557,7 @@
         <v/>
       </c>
       <c r="L211" s="14" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="N211" s="4" t="str">
@@ -6583,7 +6583,7 @@
         <v/>
       </c>
       <c r="L212" s="14" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="N212" s="4" t="str">
@@ -6609,7 +6609,7 @@
         <v/>
       </c>
       <c r="L213" s="14" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="N213" s="4" t="str">
@@ -6635,7 +6635,7 @@
         <v/>
       </c>
       <c r="L214" s="14" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="N214" s="4" t="str">
@@ -6661,7 +6661,7 @@
         <v/>
       </c>
       <c r="L215" s="14" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="N215" s="4" t="str">
@@ -6687,7 +6687,7 @@
         <v/>
       </c>
       <c r="L216" s="14" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="N216" s="4" t="str">
@@ -6713,7 +6713,7 @@
         <v/>
       </c>
       <c r="L217" s="14" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="N217" s="4" t="str">
@@ -6739,7 +6739,7 @@
         <v/>
       </c>
       <c r="L218" s="14" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="N218" s="4" t="str">
@@ -6765,7 +6765,7 @@
         <v/>
       </c>
       <c r="L219" s="14" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="N219" s="4" t="str">
@@ -6791,7 +6791,7 @@
         <v/>
       </c>
       <c r="L220" s="14" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="N220" s="4" t="str">
@@ -6817,7 +6817,7 @@
         <v/>
       </c>
       <c r="L221" s="14" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="N221" s="4" t="str">
@@ -6843,7 +6843,7 @@
         <v/>
       </c>
       <c r="L222" s="14" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="N222" s="4" t="str">
@@ -6869,7 +6869,7 @@
         <v/>
       </c>
       <c r="L223" s="14" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="N223" s="4" t="str">
@@ -6895,7 +6895,7 @@
         <v/>
       </c>
       <c r="L224" s="14" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="N224" s="4" t="str">
@@ -6921,7 +6921,7 @@
         <v/>
       </c>
       <c r="L225" s="14" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="N225" s="4" t="str">
@@ -6947,7 +6947,7 @@
         <v/>
       </c>
       <c r="L226" s="14" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="N226" s="4" t="str">
@@ -6973,7 +6973,7 @@
         <v/>
       </c>
       <c r="L227" s="14" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="N227" s="4" t="str">
@@ -6999,7 +6999,7 @@
         <v/>
       </c>
       <c r="L228" s="14" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="N228" s="4" t="str">
@@ -7025,7 +7025,7 @@
         <v/>
       </c>
       <c r="L229" s="14" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="N229" s="4" t="str">
@@ -7051,7 +7051,7 @@
         <v/>
       </c>
       <c r="L230" s="14" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="N230" s="4" t="str">
@@ -7077,7 +7077,7 @@
         <v/>
       </c>
       <c r="L231" s="14" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="N231" s="4" t="str">
@@ -7103,7 +7103,7 @@
         <v/>
       </c>
       <c r="L232" s="14" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="N232" s="4" t="str">
@@ -7129,7 +7129,7 @@
         <v/>
       </c>
       <c r="L233" s="14" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="N233" s="4" t="str">
@@ -7155,7 +7155,7 @@
         <v/>
       </c>
       <c r="L234" s="14" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="N234" s="4" t="str">
@@ -7181,7 +7181,7 @@
         <v/>
       </c>
       <c r="L235" s="14" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="N235" s="4" t="str">
@@ -7207,7 +7207,7 @@
         <v/>
       </c>
       <c r="L236" s="14" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="N236" s="4" t="str">
@@ -7233,7 +7233,7 @@
         <v/>
       </c>
       <c r="L237" s="14" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="N237" s="4" t="str">
@@ -7259,7 +7259,7 @@
         <v/>
       </c>
       <c r="L238" s="14" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="N238" s="4" t="str">
@@ -7285,7 +7285,7 @@
         <v/>
       </c>
       <c r="L239" s="14" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="N239" s="4" t="str">
@@ -7311,7 +7311,7 @@
         <v/>
       </c>
       <c r="L240" s="14" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="N240" s="4" t="str">
@@ -7337,7 +7337,7 @@
         <v/>
       </c>
       <c r="L241" s="14" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="N241" s="4" t="str">
@@ -7363,7 +7363,7 @@
         <v/>
       </c>
       <c r="L242" s="14" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="N242" s="4" t="str">
@@ -7389,7 +7389,7 @@
         <v/>
       </c>
       <c r="L243" s="14" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="N243" s="4" t="str">
@@ -7415,7 +7415,7 @@
         <v/>
       </c>
       <c r="L244" s="14" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="N244" s="4" t="str">
@@ -7441,7 +7441,7 @@
         <v/>
       </c>
       <c r="L245" s="14" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="N245" s="4" t="str">
@@ -7467,7 +7467,7 @@
         <v/>
       </c>
       <c r="L246" s="14" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="N246" s="4" t="str">
@@ -7493,7 +7493,7 @@
         <v/>
       </c>
       <c r="L247" s="14" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="N247" s="4" t="str">
@@ -7519,7 +7519,7 @@
         <v/>
       </c>
       <c r="L248" s="14" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="N248" s="4" t="str">
@@ -7545,7 +7545,7 @@
         <v/>
       </c>
       <c r="L249" s="14" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="N249" s="4" t="str">
@@ -7571,7 +7571,7 @@
         <v/>
       </c>
       <c r="L250" s="14" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="N250" s="4" t="str">
@@ -7597,7 +7597,7 @@
         <v/>
       </c>
       <c r="L251" s="14" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="N251" s="4" t="str">
@@ -7623,7 +7623,7 @@
         <v/>
       </c>
       <c r="L252" s="14" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="N252" s="4" t="str">
@@ -7649,7 +7649,7 @@
         <v/>
       </c>
       <c r="L253" s="14" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="N253" s="4" t="str">
@@ -7675,7 +7675,7 @@
         <v/>
       </c>
       <c r="L254" s="14" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="N254" s="4" t="str">
@@ -7701,7 +7701,7 @@
         <v/>
       </c>
       <c r="L255" s="14" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="N255" s="4" t="str">
@@ -7727,7 +7727,7 @@
         <v/>
       </c>
       <c r="L256" s="14" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="N256" s="4" t="str">
@@ -7753,7 +7753,7 @@
         <v/>
       </c>
       <c r="L257" s="14" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="N257" s="4" t="str">
@@ -7779,7 +7779,7 @@
         <v/>
       </c>
       <c r="L258" s="14" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="N258" s="4" t="str">
@@ -7805,7 +7805,7 @@
         <v/>
       </c>
       <c r="L259" s="14" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="N259" s="4" t="str">
@@ -7831,7 +7831,7 @@
         <v/>
       </c>
       <c r="L260" s="14" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="N260" s="4" t="str">
@@ -7857,7 +7857,7 @@
         <v/>
       </c>
       <c r="L261" s="14" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="N261" s="4" t="str">
@@ -7883,7 +7883,7 @@
         <v/>
       </c>
       <c r="L262" s="14" t="str">
-        <f t="shared" ref="L262:L325" si="27">IF($D262&gt;10%,"（止盈）",IF($D262&lt;-5%,"（止损）",""))</f>
+        <f t="shared" ref="L262:L325" ca="1" si="27">IF($J262&gt;1, IF($D262&gt;10%,"（止盈）",IF($D262&lt;-5%,"（止损）","")), "")</f>
         <v/>
       </c>
       <c r="N262" s="4" t="str">
@@ -7909,7 +7909,7 @@
         <v/>
       </c>
       <c r="L263" s="14" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" ca="1" si="27"/>
         <v/>
       </c>
       <c r="N263" s="4" t="str">
@@ -7935,7 +7935,7 @@
         <v/>
       </c>
       <c r="L264" s="14" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" ca="1" si="27"/>
         <v/>
       </c>
       <c r="N264" s="4" t="str">
@@ -7961,7 +7961,7 @@
         <v/>
       </c>
       <c r="L265" s="14" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" ca="1" si="27"/>
         <v/>
       </c>
       <c r="N265" s="4" t="str">
@@ -7987,7 +7987,7 @@
         <v/>
       </c>
       <c r="L266" s="14" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" ca="1" si="27"/>
         <v/>
       </c>
       <c r="N266" s="4" t="str">
@@ -8013,7 +8013,7 @@
         <v/>
       </c>
       <c r="L267" s="14" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" ca="1" si="27"/>
         <v/>
       </c>
       <c r="N267" s="4" t="str">
@@ -8039,7 +8039,7 @@
         <v/>
       </c>
       <c r="L268" s="14" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" ca="1" si="27"/>
         <v/>
       </c>
       <c r="N268" s="4" t="str">
@@ -8065,7 +8065,7 @@
         <v/>
       </c>
       <c r="L269" s="14" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" ca="1" si="27"/>
         <v/>
       </c>
       <c r="N269" s="4" t="str">
@@ -8091,7 +8091,7 @@
         <v/>
       </c>
       <c r="L270" s="14" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" ca="1" si="27"/>
         <v/>
       </c>
       <c r="N270" s="4" t="str">
@@ -8117,7 +8117,7 @@
         <v/>
       </c>
       <c r="L271" s="14" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" ca="1" si="27"/>
         <v/>
       </c>
       <c r="N271" s="4" t="str">
@@ -8143,7 +8143,7 @@
         <v/>
       </c>
       <c r="L272" s="14" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" ca="1" si="27"/>
         <v/>
       </c>
       <c r="N272" s="4" t="str">
@@ -8169,7 +8169,7 @@
         <v/>
       </c>
       <c r="L273" s="14" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" ca="1" si="27"/>
         <v/>
       </c>
       <c r="N273" s="4" t="str">
@@ -8195,7 +8195,7 @@
         <v/>
       </c>
       <c r="L274" s="14" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" ca="1" si="27"/>
         <v/>
       </c>
       <c r="N274" s="4" t="str">
@@ -8221,7 +8221,7 @@
         <v/>
       </c>
       <c r="L275" s="14" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" ca="1" si="27"/>
         <v/>
       </c>
       <c r="N275" s="4" t="str">
@@ -8247,7 +8247,7 @@
         <v/>
       </c>
       <c r="L276" s="14" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" ca="1" si="27"/>
         <v/>
       </c>
       <c r="N276" s="4" t="str">
@@ -8273,7 +8273,7 @@
         <v/>
       </c>
       <c r="L277" s="14" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" ca="1" si="27"/>
         <v/>
       </c>
       <c r="N277" s="4" t="str">
@@ -8299,7 +8299,7 @@
         <v/>
       </c>
       <c r="L278" s="14" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" ca="1" si="27"/>
         <v/>
       </c>
       <c r="N278" s="4" t="str">
@@ -8325,7 +8325,7 @@
         <v/>
       </c>
       <c r="L279" s="14" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" ca="1" si="27"/>
         <v/>
       </c>
       <c r="N279" s="4" t="str">
@@ -8351,7 +8351,7 @@
         <v/>
       </c>
       <c r="L280" s="14" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" ca="1" si="27"/>
         <v/>
       </c>
       <c r="N280" s="4" t="str">
@@ -8377,7 +8377,7 @@
         <v/>
       </c>
       <c r="L281" s="14" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" ca="1" si="27"/>
         <v/>
       </c>
       <c r="N281" s="4" t="str">
@@ -8403,7 +8403,7 @@
         <v/>
       </c>
       <c r="L282" s="14" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" ca="1" si="27"/>
         <v/>
       </c>
       <c r="N282" s="4" t="str">
@@ -8429,7 +8429,7 @@
         <v/>
       </c>
       <c r="L283" s="14" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" ca="1" si="27"/>
         <v/>
       </c>
       <c r="N283" s="4" t="str">
@@ -8455,7 +8455,7 @@
         <v/>
       </c>
       <c r="L284" s="14" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" ca="1" si="27"/>
         <v/>
       </c>
       <c r="N284" s="4" t="str">
@@ -8481,7 +8481,7 @@
         <v/>
       </c>
       <c r="L285" s="14" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" ca="1" si="27"/>
         <v/>
       </c>
       <c r="N285" s="4" t="str">
@@ -8507,7 +8507,7 @@
         <v/>
       </c>
       <c r="L286" s="14" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" ca="1" si="27"/>
         <v/>
       </c>
       <c r="N286" s="4" t="str">
@@ -8533,7 +8533,7 @@
         <v/>
       </c>
       <c r="L287" s="14" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" ca="1" si="27"/>
         <v/>
       </c>
       <c r="N287" s="4" t="str">
@@ -8559,7 +8559,7 @@
         <v/>
       </c>
       <c r="L288" s="14" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" ca="1" si="27"/>
         <v/>
       </c>
       <c r="N288" s="4" t="str">
@@ -8585,7 +8585,7 @@
         <v/>
       </c>
       <c r="L289" s="14" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" ca="1" si="27"/>
         <v/>
       </c>
       <c r="N289" s="4" t="str">
@@ -8611,7 +8611,7 @@
         <v/>
       </c>
       <c r="L290" s="14" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" ca="1" si="27"/>
         <v/>
       </c>
       <c r="N290" s="4" t="str">
@@ -8637,7 +8637,7 @@
         <v/>
       </c>
       <c r="L291" s="14" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" ca="1" si="27"/>
         <v/>
       </c>
       <c r="N291" s="4" t="str">
@@ -8663,7 +8663,7 @@
         <v/>
       </c>
       <c r="L292" s="14" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" ca="1" si="27"/>
         <v/>
       </c>
       <c r="N292" s="4" t="str">
@@ -8689,7 +8689,7 @@
         <v/>
       </c>
       <c r="L293" s="14" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" ca="1" si="27"/>
         <v/>
       </c>
       <c r="N293" s="4" t="str">
@@ -8715,7 +8715,7 @@
         <v/>
       </c>
       <c r="L294" s="14" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" ca="1" si="27"/>
         <v/>
       </c>
       <c r="N294" s="4" t="str">
@@ -8741,7 +8741,7 @@
         <v/>
       </c>
       <c r="L295" s="14" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" ca="1" si="27"/>
         <v/>
       </c>
       <c r="N295" s="4" t="str">
@@ -8767,7 +8767,7 @@
         <v/>
       </c>
       <c r="L296" s="14" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" ca="1" si="27"/>
         <v/>
       </c>
       <c r="N296" s="4" t="str">
@@ -8793,7 +8793,7 @@
         <v/>
       </c>
       <c r="L297" s="14" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" ca="1" si="27"/>
         <v/>
       </c>
       <c r="N297" s="4" t="str">
@@ -8819,7 +8819,7 @@
         <v/>
       </c>
       <c r="L298" s="14" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" ca="1" si="27"/>
         <v/>
       </c>
       <c r="N298" s="4" t="str">
@@ -8845,7 +8845,7 @@
         <v/>
       </c>
       <c r="L299" s="14" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" ca="1" si="27"/>
         <v/>
       </c>
       <c r="N299" s="4" t="str">
@@ -8871,7 +8871,7 @@
         <v/>
       </c>
       <c r="L300" s="14" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" ca="1" si="27"/>
         <v/>
       </c>
       <c r="N300" s="4" t="str">
@@ -8897,7 +8897,7 @@
         <v/>
       </c>
       <c r="L301" s="14" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" ca="1" si="27"/>
         <v/>
       </c>
       <c r="N301" s="4" t="str">
@@ -8923,7 +8923,7 @@
         <v/>
       </c>
       <c r="L302" s="14" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" ca="1" si="27"/>
         <v/>
       </c>
       <c r="N302" s="4" t="str">
@@ -8949,7 +8949,7 @@
         <v/>
       </c>
       <c r="L303" s="14" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" ca="1" si="27"/>
         <v/>
       </c>
       <c r="N303" s="4" t="str">
@@ -8975,7 +8975,7 @@
         <v/>
       </c>
       <c r="L304" s="14" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" ca="1" si="27"/>
         <v/>
       </c>
       <c r="N304" s="4" t="str">
@@ -9001,7 +9001,7 @@
         <v/>
       </c>
       <c r="L305" s="14" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" ca="1" si="27"/>
         <v/>
       </c>
       <c r="N305" s="4" t="str">
@@ -9027,7 +9027,7 @@
         <v/>
       </c>
       <c r="L306" s="14" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" ca="1" si="27"/>
         <v/>
       </c>
       <c r="N306" s="4" t="str">
@@ -9053,7 +9053,7 @@
         <v/>
       </c>
       <c r="L307" s="14" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" ca="1" si="27"/>
         <v/>
       </c>
       <c r="N307" s="4" t="str">
@@ -9079,7 +9079,7 @@
         <v/>
       </c>
       <c r="L308" s="14" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" ca="1" si="27"/>
         <v/>
       </c>
       <c r="N308" s="4" t="str">
@@ -9105,7 +9105,7 @@
         <v/>
       </c>
       <c r="L309" s="14" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" ca="1" si="27"/>
         <v/>
       </c>
       <c r="N309" s="4" t="str">
@@ -9131,7 +9131,7 @@
         <v/>
       </c>
       <c r="L310" s="14" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" ca="1" si="27"/>
         <v/>
       </c>
       <c r="N310" s="4" t="str">
@@ -9157,7 +9157,7 @@
         <v/>
       </c>
       <c r="L311" s="14" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" ca="1" si="27"/>
         <v/>
       </c>
       <c r="N311" s="4" t="str">
@@ -9183,7 +9183,7 @@
         <v/>
       </c>
       <c r="L312" s="14" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" ca="1" si="27"/>
         <v/>
       </c>
       <c r="N312" s="4" t="str">
@@ -9209,7 +9209,7 @@
         <v/>
       </c>
       <c r="L313" s="14" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" ca="1" si="27"/>
         <v/>
       </c>
       <c r="N313" s="4" t="str">
@@ -9235,7 +9235,7 @@
         <v/>
       </c>
       <c r="L314" s="14" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" ca="1" si="27"/>
         <v/>
       </c>
       <c r="N314" s="4" t="str">
@@ -9261,7 +9261,7 @@
         <v/>
       </c>
       <c r="L315" s="14" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" ca="1" si="27"/>
         <v/>
       </c>
       <c r="N315" s="4" t="str">
@@ -9287,7 +9287,7 @@
         <v/>
       </c>
       <c r="L316" s="14" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" ca="1" si="27"/>
         <v/>
       </c>
       <c r="N316" s="4" t="str">
@@ -9313,7 +9313,7 @@
         <v/>
       </c>
       <c r="L317" s="14" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" ca="1" si="27"/>
         <v/>
       </c>
       <c r="N317" s="4" t="str">
@@ -9339,7 +9339,7 @@
         <v/>
       </c>
       <c r="L318" s="14" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" ca="1" si="27"/>
         <v/>
       </c>
       <c r="N318" s="4" t="str">
@@ -9365,7 +9365,7 @@
         <v/>
       </c>
       <c r="L319" s="14" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" ca="1" si="27"/>
         <v/>
       </c>
       <c r="N319" s="4" t="str">
@@ -9391,7 +9391,7 @@
         <v/>
       </c>
       <c r="L320" s="14" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" ca="1" si="27"/>
         <v/>
       </c>
       <c r="N320" s="4" t="str">
@@ -9417,7 +9417,7 @@
         <v/>
       </c>
       <c r="L321" s="14" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" ca="1" si="27"/>
         <v/>
       </c>
       <c r="N321" s="4" t="str">
@@ -9443,7 +9443,7 @@
         <v/>
       </c>
       <c r="L322" s="14" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" ca="1" si="27"/>
         <v/>
       </c>
       <c r="N322" s="4" t="str">
@@ -9469,7 +9469,7 @@
         <v/>
       </c>
       <c r="L323" s="14" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" ca="1" si="27"/>
         <v/>
       </c>
       <c r="N323" s="4" t="str">
@@ -9495,7 +9495,7 @@
         <v/>
       </c>
       <c r="L324" s="14" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" ca="1" si="27"/>
         <v/>
       </c>
       <c r="N324" s="4" t="str">
@@ -9521,7 +9521,7 @@
         <v/>
       </c>
       <c r="L325" s="14" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" ca="1" si="27"/>
         <v/>
       </c>
       <c r="N325" s="4" t="str">
@@ -9547,7 +9547,7 @@
         <v/>
       </c>
       <c r="L326" s="14" t="str">
-        <f t="shared" ref="L326:L389" si="33">IF($D326&gt;10%,"（止盈）",IF($D326&lt;-5%,"（止损）",""))</f>
+        <f t="shared" ref="L326:L389" ca="1" si="33">IF($J326&gt;1, IF($D326&gt;10%,"（止盈）",IF($D326&lt;-5%,"（止损）","")), "")</f>
         <v/>
       </c>
       <c r="N326" s="4" t="str">
@@ -9573,7 +9573,7 @@
         <v/>
       </c>
       <c r="L327" s="14" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" ca="1" si="33"/>
         <v/>
       </c>
       <c r="N327" s="4" t="str">
@@ -9599,7 +9599,7 @@
         <v/>
       </c>
       <c r="L328" s="14" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" ca="1" si="33"/>
         <v/>
       </c>
       <c r="N328" s="4" t="str">
@@ -9625,7 +9625,7 @@
         <v/>
       </c>
       <c r="L329" s="14" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" ca="1" si="33"/>
         <v/>
       </c>
       <c r="N329" s="4" t="str">
@@ -9651,7 +9651,7 @@
         <v/>
       </c>
       <c r="L330" s="14" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" ca="1" si="33"/>
         <v/>
       </c>
       <c r="N330" s="4" t="str">
@@ -9677,7 +9677,7 @@
         <v/>
       </c>
       <c r="L331" s="14" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" ca="1" si="33"/>
         <v/>
       </c>
       <c r="N331" s="4" t="str">
@@ -9703,7 +9703,7 @@
         <v/>
       </c>
       <c r="L332" s="14" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" ca="1" si="33"/>
         <v/>
       </c>
       <c r="N332" s="4" t="str">
@@ -9729,7 +9729,7 @@
         <v/>
       </c>
       <c r="L333" s="14" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" ca="1" si="33"/>
         <v/>
       </c>
       <c r="N333" s="4" t="str">
@@ -9755,7 +9755,7 @@
         <v/>
       </c>
       <c r="L334" s="14" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" ca="1" si="33"/>
         <v/>
       </c>
       <c r="N334" s="4" t="str">
@@ -9781,7 +9781,7 @@
         <v/>
       </c>
       <c r="L335" s="14" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" ca="1" si="33"/>
         <v/>
       </c>
       <c r="N335" s="4" t="str">
@@ -9807,7 +9807,7 @@
         <v/>
       </c>
       <c r="L336" s="14" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" ca="1" si="33"/>
         <v/>
       </c>
       <c r="N336" s="4" t="str">
@@ -9833,7 +9833,7 @@
         <v/>
       </c>
       <c r="L337" s="14" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" ca="1" si="33"/>
         <v/>
       </c>
       <c r="N337" s="4" t="str">
@@ -9859,7 +9859,7 @@
         <v/>
       </c>
       <c r="L338" s="14" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" ca="1" si="33"/>
         <v/>
       </c>
       <c r="N338" s="4" t="str">
@@ -9885,7 +9885,7 @@
         <v/>
       </c>
       <c r="L339" s="14" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" ca="1" si="33"/>
         <v/>
       </c>
       <c r="N339" s="4" t="str">
@@ -9911,7 +9911,7 @@
         <v/>
       </c>
       <c r="L340" s="14" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" ca="1" si="33"/>
         <v/>
       </c>
       <c r="N340" s="4" t="str">
@@ -9937,7 +9937,7 @@
         <v/>
       </c>
       <c r="L341" s="14" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" ca="1" si="33"/>
         <v/>
       </c>
       <c r="N341" s="4" t="str">
@@ -9963,7 +9963,7 @@
         <v/>
       </c>
       <c r="L342" s="14" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" ca="1" si="33"/>
         <v/>
       </c>
       <c r="N342" s="4" t="str">
@@ -9989,7 +9989,7 @@
         <v/>
       </c>
       <c r="L343" s="14" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" ca="1" si="33"/>
         <v/>
       </c>
       <c r="N343" s="4" t="str">
@@ -10015,7 +10015,7 @@
         <v/>
       </c>
       <c r="L344" s="14" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" ca="1" si="33"/>
         <v/>
       </c>
       <c r="N344" s="4" t="str">
@@ -10041,7 +10041,7 @@
         <v/>
       </c>
       <c r="L345" s="14" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" ca="1" si="33"/>
         <v/>
       </c>
       <c r="N345" s="4" t="str">
@@ -10067,7 +10067,7 @@
         <v/>
       </c>
       <c r="L346" s="14" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" ca="1" si="33"/>
         <v/>
       </c>
       <c r="N346" s="4" t="str">
@@ -10093,7 +10093,7 @@
         <v/>
       </c>
       <c r="L347" s="14" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" ca="1" si="33"/>
         <v/>
       </c>
       <c r="N347" s="4" t="str">
@@ -10119,7 +10119,7 @@
         <v/>
       </c>
       <c r="L348" s="14" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" ca="1" si="33"/>
         <v/>
       </c>
       <c r="N348" s="4" t="str">
@@ -10145,7 +10145,7 @@
         <v/>
       </c>
       <c r="L349" s="14" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" ca="1" si="33"/>
         <v/>
       </c>
       <c r="N349" s="4" t="str">
@@ -10171,7 +10171,7 @@
         <v/>
       </c>
       <c r="L350" s="14" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" ca="1" si="33"/>
         <v/>
       </c>
       <c r="N350" s="4" t="str">
@@ -10197,7 +10197,7 @@
         <v/>
       </c>
       <c r="L351" s="14" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" ca="1" si="33"/>
         <v/>
       </c>
       <c r="N351" s="4" t="str">
@@ -10223,7 +10223,7 @@
         <v/>
       </c>
       <c r="L352" s="14" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" ca="1" si="33"/>
         <v/>
       </c>
       <c r="N352" s="4" t="str">
@@ -10249,7 +10249,7 @@
         <v/>
       </c>
       <c r="L353" s="14" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" ca="1" si="33"/>
         <v/>
       </c>
       <c r="N353" s="4" t="str">
@@ -10275,7 +10275,7 @@
         <v/>
       </c>
       <c r="L354" s="14" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" ca="1" si="33"/>
         <v/>
       </c>
       <c r="N354" s="4" t="str">
@@ -10301,7 +10301,7 @@
         <v/>
       </c>
       <c r="L355" s="14" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" ca="1" si="33"/>
         <v/>
       </c>
       <c r="N355" s="4" t="str">
@@ -10327,7 +10327,7 @@
         <v/>
       </c>
       <c r="L356" s="14" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" ca="1" si="33"/>
         <v/>
       </c>
       <c r="N356" s="4" t="str">
@@ -10353,7 +10353,7 @@
         <v/>
       </c>
       <c r="L357" s="14" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" ca="1" si="33"/>
         <v/>
       </c>
       <c r="N357" s="4" t="str">
@@ -10379,7 +10379,7 @@
         <v/>
       </c>
       <c r="L358" s="14" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" ca="1" si="33"/>
         <v/>
       </c>
       <c r="N358" s="4" t="str">
@@ -10405,7 +10405,7 @@
         <v/>
       </c>
       <c r="L359" s="14" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" ca="1" si="33"/>
         <v/>
       </c>
       <c r="N359" s="4" t="str">
@@ -10431,7 +10431,7 @@
         <v/>
       </c>
       <c r="L360" s="14" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" ca="1" si="33"/>
         <v/>
       </c>
       <c r="N360" s="4" t="str">
@@ -10457,7 +10457,7 @@
         <v/>
       </c>
       <c r="L361" s="14" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" ca="1" si="33"/>
         <v/>
       </c>
       <c r="N361" s="4" t="str">
@@ -10483,7 +10483,7 @@
         <v/>
       </c>
       <c r="L362" s="14" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" ca="1" si="33"/>
         <v/>
       </c>
       <c r="N362" s="4" t="str">
@@ -10509,7 +10509,7 @@
         <v/>
       </c>
       <c r="L363" s="14" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" ca="1" si="33"/>
         <v/>
       </c>
       <c r="N363" s="4" t="str">
@@ -10535,7 +10535,7 @@
         <v/>
       </c>
       <c r="L364" s="14" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" ca="1" si="33"/>
         <v/>
       </c>
       <c r="N364" s="4" t="str">
@@ -10561,7 +10561,7 @@
         <v/>
       </c>
       <c r="L365" s="14" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" ca="1" si="33"/>
         <v/>
       </c>
       <c r="N365" s="4" t="str">
@@ -10587,7 +10587,7 @@
         <v/>
       </c>
       <c r="L366" s="14" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" ca="1" si="33"/>
         <v/>
       </c>
       <c r="N366" s="4" t="str">
@@ -10613,7 +10613,7 @@
         <v/>
       </c>
       <c r="L367" s="14" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" ca="1" si="33"/>
         <v/>
       </c>
       <c r="N367" s="4" t="str">
@@ -10639,7 +10639,7 @@
         <v/>
       </c>
       <c r="L368" s="14" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" ca="1" si="33"/>
         <v/>
       </c>
       <c r="N368" s="4" t="str">
@@ -10665,7 +10665,7 @@
         <v/>
       </c>
       <c r="L369" s="14" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" ca="1" si="33"/>
         <v/>
       </c>
       <c r="N369" s="4" t="str">
@@ -10691,7 +10691,7 @@
         <v/>
       </c>
       <c r="L370" s="14" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" ca="1" si="33"/>
         <v/>
       </c>
       <c r="N370" s="4" t="str">
@@ -10717,7 +10717,7 @@
         <v/>
       </c>
       <c r="L371" s="14" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" ca="1" si="33"/>
         <v/>
       </c>
       <c r="N371" s="4" t="str">
@@ -10743,7 +10743,7 @@
         <v/>
       </c>
       <c r="L372" s="14" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" ca="1" si="33"/>
         <v/>
       </c>
       <c r="N372" s="4" t="str">
@@ -10769,7 +10769,7 @@
         <v/>
       </c>
       <c r="L373" s="14" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" ca="1" si="33"/>
         <v/>
       </c>
       <c r="N373" s="4" t="str">
@@ -10795,7 +10795,7 @@
         <v/>
       </c>
       <c r="L374" s="14" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" ca="1" si="33"/>
         <v/>
       </c>
       <c r="N374" s="4" t="str">
@@ -10821,7 +10821,7 @@
         <v/>
       </c>
       <c r="L375" s="14" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" ca="1" si="33"/>
         <v/>
       </c>
       <c r="N375" s="4" t="str">
@@ -10847,7 +10847,7 @@
         <v/>
       </c>
       <c r="L376" s="14" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" ca="1" si="33"/>
         <v/>
       </c>
       <c r="N376" s="4" t="str">
@@ -10873,7 +10873,7 @@
         <v/>
       </c>
       <c r="L377" s="14" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" ca="1" si="33"/>
         <v/>
       </c>
       <c r="N377" s="4" t="str">
@@ -10899,7 +10899,7 @@
         <v/>
       </c>
       <c r="L378" s="14" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" ca="1" si="33"/>
         <v/>
       </c>
       <c r="N378" s="4" t="str">
@@ -10925,7 +10925,7 @@
         <v/>
       </c>
       <c r="L379" s="14" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" ca="1" si="33"/>
         <v/>
       </c>
       <c r="N379" s="4" t="str">
@@ -10951,7 +10951,7 @@
         <v/>
       </c>
       <c r="L380" s="14" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" ca="1" si="33"/>
         <v/>
       </c>
       <c r="N380" s="4" t="str">
@@ -10977,7 +10977,7 @@
         <v/>
       </c>
       <c r="L381" s="14" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" ca="1" si="33"/>
         <v/>
       </c>
       <c r="N381" s="4" t="str">
@@ -11003,7 +11003,7 @@
         <v/>
       </c>
       <c r="L382" s="14" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" ca="1" si="33"/>
         <v/>
       </c>
       <c r="N382" s="4" t="str">
@@ -11029,7 +11029,7 @@
         <v/>
       </c>
       <c r="L383" s="14" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" ca="1" si="33"/>
         <v/>
       </c>
       <c r="N383" s="4" t="str">
@@ -11055,7 +11055,7 @@
         <v/>
       </c>
       <c r="L384" s="14" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" ca="1" si="33"/>
         <v/>
       </c>
       <c r="N384" s="4" t="str">
@@ -11081,7 +11081,7 @@
         <v/>
       </c>
       <c r="L385" s="14" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" ca="1" si="33"/>
         <v/>
       </c>
       <c r="N385" s="4" t="str">
@@ -11107,7 +11107,7 @@
         <v/>
       </c>
       <c r="L386" s="14" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" ca="1" si="33"/>
         <v/>
       </c>
       <c r="N386" s="4" t="str">
@@ -11133,7 +11133,7 @@
         <v/>
       </c>
       <c r="L387" s="14" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" ca="1" si="33"/>
         <v/>
       </c>
       <c r="N387" s="4" t="str">
@@ -11159,7 +11159,7 @@
         <v/>
       </c>
       <c r="L388" s="14" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" ca="1" si="33"/>
         <v/>
       </c>
       <c r="N388" s="4" t="str">
@@ -11185,7 +11185,7 @@
         <v/>
       </c>
       <c r="L389" s="14" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" ca="1" si="33"/>
         <v/>
       </c>
       <c r="N389" s="4" t="str">
@@ -11211,7 +11211,7 @@
         <v/>
       </c>
       <c r="L390" s="14" t="str">
-        <f t="shared" ref="L390:L453" si="39">IF($D390&gt;10%,"（止盈）",IF($D390&lt;-5%,"（止损）",""))</f>
+        <f t="shared" ref="L390:L453" ca="1" si="39">IF($J390&gt;1, IF($D390&gt;10%,"（止盈）",IF($D390&lt;-5%,"（止损）","")), "")</f>
         <v/>
       </c>
       <c r="N390" s="4" t="str">
@@ -11237,7 +11237,7 @@
         <v/>
       </c>
       <c r="L391" s="14" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" ca="1" si="39"/>
         <v/>
       </c>
       <c r="N391" s="4" t="str">
@@ -11263,7 +11263,7 @@
         <v/>
       </c>
       <c r="L392" s="14" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" ca="1" si="39"/>
         <v/>
       </c>
       <c r="N392" s="4" t="str">
@@ -11289,7 +11289,7 @@
         <v/>
       </c>
       <c r="L393" s="14" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" ca="1" si="39"/>
         <v/>
       </c>
       <c r="N393" s="4" t="str">
@@ -11315,7 +11315,7 @@
         <v/>
       </c>
       <c r="L394" s="14" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" ca="1" si="39"/>
         <v/>
       </c>
       <c r="N394" s="4" t="str">
@@ -11341,7 +11341,7 @@
         <v/>
       </c>
       <c r="L395" s="14" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" ca="1" si="39"/>
         <v/>
       </c>
       <c r="N395" s="4" t="str">
@@ -11367,7 +11367,7 @@
         <v/>
       </c>
       <c r="L396" s="14" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" ca="1" si="39"/>
         <v/>
       </c>
       <c r="N396" s="4" t="str">
@@ -11393,7 +11393,7 @@
         <v/>
       </c>
       <c r="L397" s="14" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" ca="1" si="39"/>
         <v/>
       </c>
       <c r="N397" s="4" t="str">
@@ -11419,7 +11419,7 @@
         <v/>
       </c>
       <c r="L398" s="14" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" ca="1" si="39"/>
         <v/>
       </c>
       <c r="N398" s="4" t="str">
@@ -11445,7 +11445,7 @@
         <v/>
       </c>
       <c r="L399" s="14" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" ca="1" si="39"/>
         <v/>
       </c>
       <c r="N399" s="4" t="str">
@@ -11471,7 +11471,7 @@
         <v/>
       </c>
       <c r="L400" s="14" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" ca="1" si="39"/>
         <v/>
       </c>
       <c r="N400" s="4" t="str">
@@ -11497,7 +11497,7 @@
         <v/>
       </c>
       <c r="L401" s="14" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" ca="1" si="39"/>
         <v/>
       </c>
       <c r="N401" s="4" t="str">
@@ -11523,7 +11523,7 @@
         <v/>
       </c>
       <c r="L402" s="14" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" ca="1" si="39"/>
         <v/>
       </c>
       <c r="N402" s="4" t="str">
@@ -11549,7 +11549,7 @@
         <v/>
       </c>
       <c r="L403" s="14" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" ca="1" si="39"/>
         <v/>
       </c>
       <c r="N403" s="4" t="str">
@@ -11575,7 +11575,7 @@
         <v/>
       </c>
       <c r="L404" s="14" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" ca="1" si="39"/>
         <v/>
       </c>
       <c r="N404" s="4" t="str">
@@ -11601,7 +11601,7 @@
         <v/>
       </c>
       <c r="L405" s="14" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" ca="1" si="39"/>
         <v/>
       </c>
       <c r="N405" s="4" t="str">
@@ -11627,7 +11627,7 @@
         <v/>
       </c>
       <c r="L406" s="14" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" ca="1" si="39"/>
         <v/>
       </c>
       <c r="N406" s="4" t="str">
@@ -11653,7 +11653,7 @@
         <v/>
       </c>
       <c r="L407" s="14" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" ca="1" si="39"/>
         <v/>
       </c>
       <c r="N407" s="4" t="str">
@@ -11679,7 +11679,7 @@
         <v/>
       </c>
       <c r="L408" s="14" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" ca="1" si="39"/>
         <v/>
       </c>
       <c r="N408" s="4" t="str">
@@ -11705,7 +11705,7 @@
         <v/>
       </c>
       <c r="L409" s="14" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" ca="1" si="39"/>
         <v/>
       </c>
       <c r="N409" s="4" t="str">
@@ -11731,7 +11731,7 @@
         <v/>
       </c>
       <c r="L410" s="14" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" ca="1" si="39"/>
         <v/>
       </c>
       <c r="N410" s="4" t="str">
@@ -11757,7 +11757,7 @@
         <v/>
       </c>
       <c r="L411" s="14" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" ca="1" si="39"/>
         <v/>
       </c>
       <c r="N411" s="4" t="str">
@@ -11783,7 +11783,7 @@
         <v/>
       </c>
       <c r="L412" s="14" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" ca="1" si="39"/>
         <v/>
       </c>
       <c r="N412" s="4" t="str">
@@ -11809,7 +11809,7 @@
         <v/>
       </c>
       <c r="L413" s="14" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" ca="1" si="39"/>
         <v/>
       </c>
       <c r="N413" s="4" t="str">
@@ -11835,7 +11835,7 @@
         <v/>
       </c>
       <c r="L414" s="14" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" ca="1" si="39"/>
         <v/>
       </c>
       <c r="N414" s="4" t="str">
@@ -11861,7 +11861,7 @@
         <v/>
       </c>
       <c r="L415" s="14" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" ca="1" si="39"/>
         <v/>
       </c>
       <c r="N415" s="4" t="str">
@@ -11887,7 +11887,7 @@
         <v/>
       </c>
       <c r="L416" s="14" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" ca="1" si="39"/>
         <v/>
       </c>
       <c r="N416" s="4" t="str">
@@ -11913,7 +11913,7 @@
         <v/>
       </c>
       <c r="L417" s="14" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" ca="1" si="39"/>
         <v/>
       </c>
       <c r="N417" s="4" t="str">
@@ -11939,7 +11939,7 @@
         <v/>
       </c>
       <c r="L418" s="14" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" ca="1" si="39"/>
         <v/>
       </c>
       <c r="N418" s="4" t="str">
@@ -11965,7 +11965,7 @@
         <v/>
       </c>
       <c r="L419" s="14" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" ca="1" si="39"/>
         <v/>
       </c>
       <c r="N419" s="4" t="str">
@@ -11991,7 +11991,7 @@
         <v/>
       </c>
       <c r="L420" s="14" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" ca="1" si="39"/>
         <v/>
       </c>
       <c r="N420" s="4" t="str">
@@ -12017,7 +12017,7 @@
         <v/>
       </c>
       <c r="L421" s="14" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" ca="1" si="39"/>
         <v/>
       </c>
       <c r="N421" s="4" t="str">
@@ -12043,7 +12043,7 @@
         <v/>
       </c>
       <c r="L422" s="14" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" ca="1" si="39"/>
         <v/>
       </c>
       <c r="N422" s="4" t="str">
@@ -12069,7 +12069,7 @@
         <v/>
       </c>
       <c r="L423" s="14" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" ca="1" si="39"/>
         <v/>
       </c>
       <c r="N423" s="4" t="str">
@@ -12095,7 +12095,7 @@
         <v/>
       </c>
       <c r="L424" s="14" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" ca="1" si="39"/>
         <v/>
       </c>
       <c r="N424" s="4" t="str">
@@ -12121,7 +12121,7 @@
         <v/>
       </c>
       <c r="L425" s="14" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" ca="1" si="39"/>
         <v/>
       </c>
       <c r="N425" s="4" t="str">
@@ -12147,7 +12147,7 @@
         <v/>
       </c>
       <c r="L426" s="14" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" ca="1" si="39"/>
         <v/>
       </c>
       <c r="N426" s="4" t="str">
@@ -12173,7 +12173,7 @@
         <v/>
       </c>
       <c r="L427" s="14" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" ca="1" si="39"/>
         <v/>
       </c>
       <c r="N427" s="4" t="str">
@@ -12199,7 +12199,7 @@
         <v/>
       </c>
       <c r="L428" s="14" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" ca="1" si="39"/>
         <v/>
       </c>
       <c r="N428" s="4" t="str">
@@ -12225,7 +12225,7 @@
         <v/>
       </c>
       <c r="L429" s="14" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" ca="1" si="39"/>
         <v/>
       </c>
       <c r="N429" s="4" t="str">
@@ -12251,7 +12251,7 @@
         <v/>
       </c>
       <c r="L430" s="14" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" ca="1" si="39"/>
         <v/>
       </c>
       <c r="N430" s="4" t="str">
@@ -12277,7 +12277,7 @@
         <v/>
       </c>
       <c r="L431" s="14" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" ca="1" si="39"/>
         <v/>
       </c>
       <c r="N431" s="4" t="str">
@@ -12303,7 +12303,7 @@
         <v/>
       </c>
       <c r="L432" s="14" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" ca="1" si="39"/>
         <v/>
       </c>
       <c r="N432" s="4" t="str">
@@ -12329,7 +12329,7 @@
         <v/>
       </c>
       <c r="L433" s="14" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" ca="1" si="39"/>
         <v/>
       </c>
       <c r="N433" s="4" t="str">
@@ -12355,7 +12355,7 @@
         <v/>
       </c>
       <c r="L434" s="14" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" ca="1" si="39"/>
         <v/>
       </c>
       <c r="N434" s="4" t="str">
@@ -12381,7 +12381,7 @@
         <v/>
       </c>
       <c r="L435" s="14" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" ca="1" si="39"/>
         <v/>
       </c>
       <c r="N435" s="4" t="str">
@@ -12407,7 +12407,7 @@
         <v/>
       </c>
       <c r="L436" s="14" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" ca="1" si="39"/>
         <v/>
       </c>
       <c r="N436" s="4" t="str">
@@ -12433,7 +12433,7 @@
         <v/>
       </c>
       <c r="L437" s="14" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" ca="1" si="39"/>
         <v/>
       </c>
       <c r="N437" s="4" t="str">
@@ -12459,7 +12459,7 @@
         <v/>
       </c>
       <c r="L438" s="14" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" ca="1" si="39"/>
         <v/>
       </c>
       <c r="N438" s="4" t="str">
@@ -12485,7 +12485,7 @@
         <v/>
       </c>
       <c r="L439" s="14" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" ca="1" si="39"/>
         <v/>
       </c>
       <c r="N439" s="4" t="str">
@@ -12511,7 +12511,7 @@
         <v/>
       </c>
       <c r="L440" s="14" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" ca="1" si="39"/>
         <v/>
       </c>
       <c r="N440" s="4" t="str">
@@ -12537,7 +12537,7 @@
         <v/>
       </c>
       <c r="L441" s="14" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" ca="1" si="39"/>
         <v/>
       </c>
       <c r="N441" s="4" t="str">
@@ -12563,7 +12563,7 @@
         <v/>
       </c>
       <c r="L442" s="14" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" ca="1" si="39"/>
         <v/>
       </c>
       <c r="N442" s="4" t="str">
@@ -12589,7 +12589,7 @@
         <v/>
       </c>
       <c r="L443" s="14" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" ca="1" si="39"/>
         <v/>
       </c>
       <c r="N443" s="4" t="str">
@@ -12615,7 +12615,7 @@
         <v/>
       </c>
       <c r="L444" s="14" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" ca="1" si="39"/>
         <v/>
       </c>
       <c r="N444" s="4" t="str">
@@ -12641,7 +12641,7 @@
         <v/>
       </c>
       <c r="L445" s="14" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" ca="1" si="39"/>
         <v/>
       </c>
       <c r="N445" s="4" t="str">
@@ -12667,7 +12667,7 @@
         <v/>
       </c>
       <c r="L446" s="14" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" ca="1" si="39"/>
         <v/>
       </c>
       <c r="N446" s="4" t="str">
@@ -12693,7 +12693,7 @@
         <v/>
       </c>
       <c r="L447" s="14" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" ca="1" si="39"/>
         <v/>
       </c>
       <c r="N447" s="4" t="str">
@@ -12719,7 +12719,7 @@
         <v/>
       </c>
       <c r="L448" s="14" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" ca="1" si="39"/>
         <v/>
       </c>
       <c r="N448" s="4" t="str">
@@ -12745,7 +12745,7 @@
         <v/>
       </c>
       <c r="L449" s="14" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" ca="1" si="39"/>
         <v/>
       </c>
       <c r="N449" s="4" t="str">
@@ -12771,7 +12771,7 @@
         <v/>
       </c>
       <c r="L450" s="14" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" ca="1" si="39"/>
         <v/>
       </c>
       <c r="N450" s="4" t="str">
@@ -12797,7 +12797,7 @@
         <v/>
       </c>
       <c r="L451" s="14" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" ca="1" si="39"/>
         <v/>
       </c>
       <c r="N451" s="4" t="str">
@@ -12823,7 +12823,7 @@
         <v/>
       </c>
       <c r="L452" s="14" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" ca="1" si="39"/>
         <v/>
       </c>
       <c r="N452" s="4" t="str">
@@ -12849,7 +12849,7 @@
         <v/>
       </c>
       <c r="L453" s="14" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" ca="1" si="39"/>
         <v/>
       </c>
       <c r="N453" s="4" t="str">
@@ -12875,7 +12875,7 @@
         <v/>
       </c>
       <c r="L454" s="14" t="str">
-        <f t="shared" ref="L454:L500" si="45">IF($D454&gt;10%,"（止盈）",IF($D454&lt;-5%,"（止损）",""))</f>
+        <f t="shared" ref="L454:L500" ca="1" si="45">IF($J454&gt;1, IF($D454&gt;10%,"（止盈）",IF($D454&lt;-5%,"（止损）","")), "")</f>
         <v/>
       </c>
       <c r="N454" s="4" t="str">
@@ -12901,7 +12901,7 @@
         <v/>
       </c>
       <c r="L455" s="14" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" ca="1" si="45"/>
         <v/>
       </c>
       <c r="N455" s="4" t="str">
@@ -12927,7 +12927,7 @@
         <v/>
       </c>
       <c r="L456" s="14" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" ca="1" si="45"/>
         <v/>
       </c>
       <c r="N456" s="4" t="str">
@@ -12953,7 +12953,7 @@
         <v/>
       </c>
       <c r="L457" s="14" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" ca="1" si="45"/>
         <v/>
       </c>
       <c r="N457" s="4" t="str">
@@ -12979,7 +12979,7 @@
         <v/>
       </c>
       <c r="L458" s="14" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" ca="1" si="45"/>
         <v/>
       </c>
       <c r="N458" s="4" t="str">
@@ -13005,7 +13005,7 @@
         <v/>
       </c>
       <c r="L459" s="14" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" ca="1" si="45"/>
         <v/>
       </c>
       <c r="N459" s="4" t="str">
@@ -13031,7 +13031,7 @@
         <v/>
       </c>
       <c r="L460" s="14" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" ca="1" si="45"/>
         <v/>
       </c>
       <c r="N460" s="4" t="str">
@@ -13057,7 +13057,7 @@
         <v/>
       </c>
       <c r="L461" s="14" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" ca="1" si="45"/>
         <v/>
       </c>
       <c r="N461" s="4" t="str">
@@ -13083,7 +13083,7 @@
         <v/>
       </c>
       <c r="L462" s="14" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" ca="1" si="45"/>
         <v/>
       </c>
       <c r="N462" s="4" t="str">
@@ -13109,7 +13109,7 @@
         <v/>
       </c>
       <c r="L463" s="14" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" ca="1" si="45"/>
         <v/>
       </c>
       <c r="N463" s="4" t="str">
@@ -13135,7 +13135,7 @@
         <v/>
       </c>
       <c r="L464" s="14" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" ca="1" si="45"/>
         <v/>
       </c>
       <c r="N464" s="4" t="str">
@@ -13161,7 +13161,7 @@
         <v/>
       </c>
       <c r="L465" s="14" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" ca="1" si="45"/>
         <v/>
       </c>
       <c r="N465" s="4" t="str">
@@ -13187,7 +13187,7 @@
         <v/>
       </c>
       <c r="L466" s="14" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" ca="1" si="45"/>
         <v/>
       </c>
       <c r="N466" s="4" t="str">
@@ -13213,7 +13213,7 @@
         <v/>
       </c>
       <c r="L467" s="14" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" ca="1" si="45"/>
         <v/>
       </c>
       <c r="N467" s="4" t="str">
@@ -13239,7 +13239,7 @@
         <v/>
       </c>
       <c r="L468" s="14" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" ca="1" si="45"/>
         <v/>
       </c>
       <c r="N468" s="4" t="str">
@@ -13265,7 +13265,7 @@
         <v/>
       </c>
       <c r="L469" s="14" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" ca="1" si="45"/>
         <v/>
       </c>
       <c r="N469" s="4" t="str">
@@ -13291,7 +13291,7 @@
         <v/>
       </c>
       <c r="L470" s="14" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" ca="1" si="45"/>
         <v/>
       </c>
       <c r="N470" s="4" t="str">
@@ -13317,7 +13317,7 @@
         <v/>
       </c>
       <c r="L471" s="14" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" ca="1" si="45"/>
         <v/>
       </c>
       <c r="N471" s="4" t="str">
@@ -13343,7 +13343,7 @@
         <v/>
       </c>
       <c r="L472" s="14" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" ca="1" si="45"/>
         <v/>
       </c>
       <c r="N472" s="4" t="str">
@@ -13369,7 +13369,7 @@
         <v/>
       </c>
       <c r="L473" s="14" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" ca="1" si="45"/>
         <v/>
       </c>
       <c r="N473" s="4" t="str">
@@ -13395,7 +13395,7 @@
         <v/>
       </c>
       <c r="L474" s="14" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" ca="1" si="45"/>
         <v/>
       </c>
       <c r="N474" s="4" t="str">
@@ -13421,7 +13421,7 @@
         <v/>
       </c>
       <c r="L475" s="14" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" ca="1" si="45"/>
         <v/>
       </c>
       <c r="N475" s="4" t="str">
@@ -13447,7 +13447,7 @@
         <v/>
       </c>
       <c r="L476" s="14" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" ca="1" si="45"/>
         <v/>
       </c>
       <c r="N476" s="4" t="str">
@@ -13473,7 +13473,7 @@
         <v/>
       </c>
       <c r="L477" s="14" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" ca="1" si="45"/>
         <v/>
       </c>
       <c r="N477" s="4" t="str">
@@ -13499,7 +13499,7 @@
         <v/>
       </c>
       <c r="L478" s="14" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" ca="1" si="45"/>
         <v/>
       </c>
       <c r="N478" s="4" t="str">
@@ -13525,7 +13525,7 @@
         <v/>
       </c>
       <c r="L479" s="14" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" ca="1" si="45"/>
         <v/>
       </c>
       <c r="N479" s="4" t="str">
@@ -13551,7 +13551,7 @@
         <v/>
       </c>
       <c r="L480" s="14" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" ca="1" si="45"/>
         <v/>
       </c>
       <c r="N480" s="4" t="str">
@@ -13577,7 +13577,7 @@
         <v/>
       </c>
       <c r="L481" s="14" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" ca="1" si="45"/>
         <v/>
       </c>
       <c r="N481" s="4" t="str">
@@ -13603,7 +13603,7 @@
         <v/>
       </c>
       <c r="L482" s="14" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" ca="1" si="45"/>
         <v/>
       </c>
       <c r="N482" s="4" t="str">
@@ -13629,7 +13629,7 @@
         <v/>
       </c>
       <c r="L483" s="14" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" ca="1" si="45"/>
         <v/>
       </c>
       <c r="N483" s="4" t="str">
@@ -13655,7 +13655,7 @@
         <v/>
       </c>
       <c r="L484" s="14" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" ca="1" si="45"/>
         <v/>
       </c>
       <c r="N484" s="4" t="str">
@@ -13681,7 +13681,7 @@
         <v/>
       </c>
       <c r="L485" s="14" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" ca="1" si="45"/>
         <v/>
       </c>
       <c r="N485" s="4" t="str">
@@ -13707,7 +13707,7 @@
         <v/>
       </c>
       <c r="L486" s="14" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" ca="1" si="45"/>
         <v/>
       </c>
       <c r="N486" s="4" t="str">
@@ -13733,7 +13733,7 @@
         <v/>
       </c>
       <c r="L487" s="14" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" ca="1" si="45"/>
         <v/>
       </c>
       <c r="N487" s="4" t="str">
@@ -13759,7 +13759,7 @@
         <v/>
       </c>
       <c r="L488" s="14" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" ca="1" si="45"/>
         <v/>
       </c>
       <c r="N488" s="4" t="str">
@@ -13785,7 +13785,7 @@
         <v/>
       </c>
       <c r="L489" s="14" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" ca="1" si="45"/>
         <v/>
       </c>
       <c r="N489" s="4" t="str">
@@ -13811,7 +13811,7 @@
         <v/>
       </c>
       <c r="L490" s="14" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" ca="1" si="45"/>
         <v/>
       </c>
       <c r="N490" s="4" t="str">
@@ -13837,7 +13837,7 @@
         <v/>
       </c>
       <c r="L491" s="14" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" ca="1" si="45"/>
         <v/>
       </c>
       <c r="N491" s="4" t="str">
@@ -13863,7 +13863,7 @@
         <v/>
       </c>
       <c r="L492" s="14" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" ca="1" si="45"/>
         <v/>
       </c>
       <c r="N492" s="4" t="str">
@@ -13889,7 +13889,7 @@
         <v/>
       </c>
       <c r="L493" s="14" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" ca="1" si="45"/>
         <v/>
       </c>
       <c r="N493" s="4" t="str">
@@ -13915,7 +13915,7 @@
         <v/>
       </c>
       <c r="L494" s="14" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" ca="1" si="45"/>
         <v/>
       </c>
       <c r="N494" s="4" t="str">
@@ -13941,7 +13941,7 @@
         <v/>
       </c>
       <c r="L495" s="14" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" ca="1" si="45"/>
         <v/>
       </c>
       <c r="N495" s="4" t="str">
@@ -13967,7 +13967,7 @@
         <v/>
       </c>
       <c r="L496" s="14" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" ca="1" si="45"/>
         <v/>
       </c>
       <c r="N496" s="4" t="str">
@@ -13993,7 +13993,7 @@
         <v/>
       </c>
       <c r="L497" s="14" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" ca="1" si="45"/>
         <v/>
       </c>
       <c r="N497" s="4" t="str">
@@ -14019,7 +14019,7 @@
         <v/>
       </c>
       <c r="L498" s="14" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" ca="1" si="45"/>
         <v/>
       </c>
       <c r="N498" s="4" t="str">
@@ -14045,7 +14045,7 @@
         <v/>
       </c>
       <c r="L499" s="14" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" ca="1" si="45"/>
         <v/>
       </c>
       <c r="N499" s="4" t="str">
@@ -14071,7 +14071,7 @@
         <v/>
       </c>
       <c r="L500" s="14" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" ca="1" si="45"/>
         <v/>
       </c>
       <c r="N500" s="4" t="str">
@@ -14136,7 +14136,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66869A95-26C1-1F48-854B-D41A12E8697C}">
   <dimension ref="B2:Y7"/>
   <sheetViews>
-    <sheetView showRowColHeaders="0" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+    <sheetView showRowColHeaders="0" tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <selection activeCell="D3" sqref="D3:Y3"/>
     </sheetView>
   </sheetViews>

--- a/股票模拟建仓模板.xlsx
+++ b/股票模拟建仓模板.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/thomas/Code/github.com/liyi1472/stock-data-onekey/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60431423-48F9-6F4D-8A31-B71DCF38B2B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C723508E-D422-8B43-AB07-716BF190A15A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" xr2:uid="{D477A090-BE23-214A-A126-EE303093E54E}"/>
+    <workbookView xWindow="840" yWindow="500" windowWidth="32760" windowHeight="20500" xr2:uid="{D477A090-BE23-214A-A126-EE303093E54E}"/>
   </bookViews>
   <sheets>
     <sheet name="仓位管理" sheetId="1" r:id="rId1"/>
@@ -583,16 +583,16 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -16143,7 +16143,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66869A95-26C1-1F48-854B-D41A12E8697C}">
   <dimension ref="B2:Y7"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+    <sheetView showRowColHeaders="0" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <selection activeCell="D3" sqref="D3:Y3"/>
     </sheetView>
   </sheetViews>
@@ -16159,148 +16159,148 @@
       <c r="C2" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="37" t="s">
+      <c r="D2" s="35" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="37"/>
-      <c r="F2" s="37"/>
-      <c r="G2" s="37"/>
-      <c r="H2" s="37"/>
-      <c r="I2" s="37"/>
-      <c r="J2" s="37"/>
-      <c r="K2" s="37"/>
-      <c r="L2" s="37"/>
-      <c r="M2" s="37"/>
-      <c r="N2" s="37"/>
-      <c r="O2" s="37"/>
-      <c r="P2" s="37"/>
-      <c r="Q2" s="37"/>
-      <c r="R2" s="37"/>
-      <c r="S2" s="37"/>
-      <c r="T2" s="37"/>
-      <c r="U2" s="37"/>
-      <c r="V2" s="37"/>
-      <c r="W2" s="37"/>
-      <c r="X2" s="37"/>
-      <c r="Y2" s="37"/>
+      <c r="E2" s="35"/>
+      <c r="F2" s="35"/>
+      <c r="G2" s="35"/>
+      <c r="H2" s="35"/>
+      <c r="I2" s="35"/>
+      <c r="J2" s="35"/>
+      <c r="K2" s="35"/>
+      <c r="L2" s="35"/>
+      <c r="M2" s="35"/>
+      <c r="N2" s="35"/>
+      <c r="O2" s="35"/>
+      <c r="P2" s="35"/>
+      <c r="Q2" s="35"/>
+      <c r="R2" s="35"/>
+      <c r="S2" s="35"/>
+      <c r="T2" s="35"/>
+      <c r="U2" s="35"/>
+      <c r="V2" s="35"/>
+      <c r="W2" s="35"/>
+      <c r="X2" s="35"/>
+      <c r="Y2" s="35"/>
     </row>
     <row r="3" spans="2:25">
       <c r="B3" s="33" t="s">
         <v>3</v>
       </c>
       <c r="C3" s="33"/>
-      <c r="D3" s="35"/>
-      <c r="E3" s="35"/>
-      <c r="F3" s="35"/>
-      <c r="G3" s="35"/>
-      <c r="H3" s="35"/>
-      <c r="I3" s="35"/>
-      <c r="J3" s="35"/>
-      <c r="K3" s="35"/>
-      <c r="L3" s="35"/>
-      <c r="M3" s="35"/>
-      <c r="N3" s="35"/>
-      <c r="O3" s="35"/>
-      <c r="P3" s="35"/>
-      <c r="Q3" s="35"/>
-      <c r="R3" s="35"/>
-      <c r="S3" s="35"/>
-      <c r="T3" s="35"/>
-      <c r="U3" s="35"/>
-      <c r="V3" s="35"/>
-      <c r="W3" s="35"/>
-      <c r="X3" s="35"/>
-      <c r="Y3" s="35"/>
+      <c r="D3" s="36"/>
+      <c r="E3" s="36"/>
+      <c r="F3" s="36"/>
+      <c r="G3" s="36"/>
+      <c r="H3" s="36"/>
+      <c r="I3" s="36"/>
+      <c r="J3" s="36"/>
+      <c r="K3" s="36"/>
+      <c r="L3" s="36"/>
+      <c r="M3" s="36"/>
+      <c r="N3" s="36"/>
+      <c r="O3" s="36"/>
+      <c r="P3" s="36"/>
+      <c r="Q3" s="36"/>
+      <c r="R3" s="36"/>
+      <c r="S3" s="36"/>
+      <c r="T3" s="36"/>
+      <c r="U3" s="36"/>
+      <c r="V3" s="36"/>
+      <c r="W3" s="36"/>
+      <c r="X3" s="36"/>
+      <c r="Y3" s="36"/>
     </row>
     <row r="4" spans="2:25">
       <c r="B4" s="33" t="s">
         <v>4</v>
       </c>
       <c r="C4" s="33"/>
-      <c r="D4" s="36" t="s">
+      <c r="D4" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="E4" s="36"/>
-      <c r="F4" s="36"/>
-      <c r="G4" s="36"/>
-      <c r="H4" s="36"/>
-      <c r="I4" s="36"/>
-      <c r="J4" s="36"/>
-      <c r="K4" s="36"/>
-      <c r="L4" s="36"/>
-      <c r="M4" s="36"/>
-      <c r="N4" s="36"/>
-      <c r="O4" s="36"/>
-      <c r="P4" s="36"/>
-      <c r="Q4" s="36"/>
-      <c r="R4" s="36"/>
-      <c r="S4" s="36"/>
-      <c r="T4" s="36"/>
-      <c r="U4" s="36"/>
-      <c r="V4" s="36"/>
-      <c r="W4" s="36"/>
-      <c r="X4" s="36"/>
-      <c r="Y4" s="36"/>
+      <c r="E4" s="37"/>
+      <c r="F4" s="37"/>
+      <c r="G4" s="37"/>
+      <c r="H4" s="37"/>
+      <c r="I4" s="37"/>
+      <c r="J4" s="37"/>
+      <c r="K4" s="37"/>
+      <c r="L4" s="37"/>
+      <c r="M4" s="37"/>
+      <c r="N4" s="37"/>
+      <c r="O4" s="37"/>
+      <c r="P4" s="37"/>
+      <c r="Q4" s="37"/>
+      <c r="R4" s="37"/>
+      <c r="S4" s="37"/>
+      <c r="T4" s="37"/>
+      <c r="U4" s="37"/>
+      <c r="V4" s="37"/>
+      <c r="W4" s="37"/>
+      <c r="X4" s="37"/>
+      <c r="Y4" s="37"/>
     </row>
     <row r="5" spans="2:25">
       <c r="B5" s="33" t="s">
         <v>5</v>
       </c>
       <c r="C5" s="33"/>
-      <c r="D5" s="36" t="s">
+      <c r="D5" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="E5" s="36"/>
-      <c r="F5" s="36"/>
-      <c r="G5" s="36"/>
-      <c r="H5" s="36"/>
-      <c r="I5" s="36"/>
-      <c r="J5" s="36"/>
-      <c r="K5" s="36"/>
-      <c r="L5" s="36"/>
-      <c r="M5" s="36"/>
-      <c r="N5" s="36"/>
-      <c r="O5" s="36"/>
-      <c r="P5" s="36"/>
-      <c r="Q5" s="36"/>
-      <c r="R5" s="36"/>
-      <c r="S5" s="36"/>
-      <c r="T5" s="36"/>
-      <c r="U5" s="36"/>
-      <c r="V5" s="36"/>
-      <c r="W5" s="36"/>
-      <c r="X5" s="36"/>
-      <c r="Y5" s="36"/>
+      <c r="E5" s="37"/>
+      <c r="F5" s="37"/>
+      <c r="G5" s="37"/>
+      <c r="H5" s="37"/>
+      <c r="I5" s="37"/>
+      <c r="J5" s="37"/>
+      <c r="K5" s="37"/>
+      <c r="L5" s="37"/>
+      <c r="M5" s="37"/>
+      <c r="N5" s="37"/>
+      <c r="O5" s="37"/>
+      <c r="P5" s="37"/>
+      <c r="Q5" s="37"/>
+      <c r="R5" s="37"/>
+      <c r="S5" s="37"/>
+      <c r="T5" s="37"/>
+      <c r="U5" s="37"/>
+      <c r="V5" s="37"/>
+      <c r="W5" s="37"/>
+      <c r="X5" s="37"/>
+      <c r="Y5" s="37"/>
     </row>
     <row r="6" spans="2:25">
       <c r="B6" s="33" t="s">
         <v>6</v>
       </c>
       <c r="C6" s="33"/>
-      <c r="D6" s="36" t="s">
-        <v>0</v>
-      </c>
-      <c r="E6" s="36"/>
-      <c r="F6" s="36"/>
-      <c r="G6" s="36"/>
-      <c r="H6" s="36"/>
-      <c r="I6" s="36"/>
-      <c r="J6" s="36"/>
-      <c r="K6" s="36"/>
-      <c r="L6" s="36"/>
-      <c r="M6" s="36"/>
-      <c r="N6" s="36"/>
-      <c r="O6" s="36"/>
-      <c r="P6" s="36"/>
-      <c r="Q6" s="36"/>
-      <c r="R6" s="36"/>
-      <c r="S6" s="36"/>
-      <c r="T6" s="36"/>
-      <c r="U6" s="36"/>
-      <c r="V6" s="36"/>
-      <c r="W6" s="36"/>
-      <c r="X6" s="36"/>
-      <c r="Y6" s="36"/>
+      <c r="D6" s="37" t="s">
+        <v>0</v>
+      </c>
+      <c r="E6" s="37"/>
+      <c r="F6" s="37"/>
+      <c r="G6" s="37"/>
+      <c r="H6" s="37"/>
+      <c r="I6" s="37"/>
+      <c r="J6" s="37"/>
+      <c r="K6" s="37"/>
+      <c r="L6" s="37"/>
+      <c r="M6" s="37"/>
+      <c r="N6" s="37"/>
+      <c r="O6" s="37"/>
+      <c r="P6" s="37"/>
+      <c r="Q6" s="37"/>
+      <c r="R6" s="37"/>
+      <c r="S6" s="37"/>
+      <c r="T6" s="37"/>
+      <c r="U6" s="37"/>
+      <c r="V6" s="37"/>
+      <c r="W6" s="37"/>
+      <c r="X6" s="37"/>
+      <c r="Y6" s="37"/>
     </row>
     <row r="7" spans="2:25">
       <c r="B7" s="34" t="s">
